--- a/s60_signal/position-01071-600027.xlsx
+++ b/s60_signal/position-01071-600027.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4437" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4446" uniqueCount="494">
   <si>
     <t>trade_time</t>
   </si>
@@ -697,10 +697,10 @@
     <t>2021-06-09</t>
   </si>
   <si>
-    <t>2021-01-25</t>
+    <t>2021-02-09</t>
   </si>
   <si>
-    <t>2021-02-09</t>
+    <t>2021-01-25</t>
   </si>
   <si>
     <t>2021-03-10</t>
@@ -1081,7 +1081,7 @@
     <t>2021-07-05</t>
   </si>
   <si>
-    <t>2021-07-12</t>
+    <t>2021-07-13</t>
   </si>
   <si>
     <t>2016-03-22</t>
@@ -1853,7 +1853,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P1475"/>
+  <dimension ref="A1:P1478"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -70970,7 +70970,7 @@
         <v>355</v>
       </c>
       <c r="E1383">
-        <v>0.6402128859060401</v>
+        <v>0.6185736912751674</v>
       </c>
       <c r="F1383">
         <v>-1</v>
@@ -70979,10 +70979,10 @@
         <v>0.00614978711409396</v>
       </c>
       <c r="H1383">
-        <v>0.006139787114093961</v>
+        <v>0.006221426308724833</v>
       </c>
       <c r="I1383">
-        <v>0.009999999999999787</v>
+        <v>0.0316391946308725</v>
       </c>
       <c r="J1383">
         <v>1.290979865771812</v>
@@ -70994,10 +70994,10 @@
         <v>3.4</v>
       </c>
       <c r="M1383">
-        <v>2.13</v>
+        <v>2.17</v>
       </c>
       <c r="N1383">
-        <v>3.39</v>
+        <v>3.42</v>
       </c>
       <c r="O1383">
         <v>1</v>
@@ -71111,43 +71111,43 @@
         <v>2</v>
       </c>
       <c r="B1386" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C1386">
-        <v>-0.3086085870363213</v>
+        <v>0.2319092341805193</v>
       </c>
       <c r="D1386" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E1386">
-        <v>0.020129291852506</v>
+        <v>-0.1775406216395132</v>
       </c>
       <c r="F1386">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1386">
-        <v>0.007128608587036322</v>
+        <v>0.006728090765819481</v>
       </c>
       <c r="H1386">
-        <v>0.006819870708147494</v>
+        <v>0.007077540621639514</v>
       </c>
       <c r="I1386">
-        <v>0.3287378788888273</v>
+        <v>0.4094498558200326</v>
       </c>
       <c r="J1386">
         <v>1.517799423280131</v>
       </c>
       <c r="K1386">
-        <v>2.45</v>
+        <v>2.14</v>
       </c>
       <c r="L1386">
-        <v>3.41</v>
+        <v>3.48</v>
       </c>
       <c r="M1386">
-        <v>2.24</v>
+        <v>2.39</v>
       </c>
       <c r="N1386">
-        <v>3.42</v>
+        <v>3.45</v>
       </c>
       <c r="O1386">
         <v>1</v>
@@ -71161,43 +71161,43 @@
         <v>3</v>
       </c>
       <c r="B1387" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C1387">
-        <v>0.1670872284133207</v>
+        <v>-0.3086085870363213</v>
       </c>
       <c r="D1387" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E1387">
-        <v>0.1570872284133209</v>
+        <v>0.020129291852506</v>
       </c>
       <c r="F1387">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1387">
-        <v>0.006632912771586679</v>
+        <v>0.007128608587036322</v>
       </c>
       <c r="H1387">
-        <v>0.00662291277158668</v>
+        <v>0.006819870708147494</v>
       </c>
       <c r="I1387">
-        <v>0.009999999999999787</v>
+        <v>0.3287378788888273</v>
       </c>
       <c r="J1387">
         <v>1.517799423280131</v>
       </c>
       <c r="K1387">
-        <v>2.13</v>
+        <v>2.45</v>
       </c>
       <c r="L1387">
-        <v>3.4</v>
+        <v>3.41</v>
       </c>
       <c r="M1387">
-        <v>2.13</v>
+        <v>2.24</v>
       </c>
       <c r="N1387">
-        <v>3.39</v>
+        <v>3.42</v>
       </c>
       <c r="O1387">
         <v>1</v>
@@ -71208,63 +71208,63 @@
     </row>
     <row r="1388" spans="1:16">
       <c r="A1388" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B1388" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="C1388">
-        <v>0.08463816680270542</v>
+        <v>0.1670872284133207</v>
       </c>
       <c r="D1388" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="E1388">
-        <v>-0.295155832347294</v>
+        <v>0.1263752514821155</v>
       </c>
       <c r="F1388">
         <v>-1</v>
       </c>
       <c r="G1388">
-        <v>0.006415361833197296</v>
+        <v>0.006632912771586679</v>
       </c>
       <c r="H1388">
-        <v>0.007195155832347295</v>
+        <v>0.006713624748517884</v>
       </c>
       <c r="I1388">
-        <v>0.3797939991499995</v>
+        <v>0.04071197693120521</v>
       </c>
       <c r="J1388">
-        <v>1.567010808513512</v>
+        <v>1.517799423280131</v>
       </c>
       <c r="K1388">
-        <v>2.02</v>
+        <v>2.13</v>
       </c>
       <c r="L1388">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M1388">
-        <v>2.39</v>
+        <v>2.17</v>
       </c>
       <c r="N1388">
-        <v>3.45</v>
+        <v>3.42</v>
       </c>
       <c r="O1388">
         <v>1</v>
       </c>
       <c r="P1388" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="1389" spans="1:16">
       <c r="A1389" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1389" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="C1389">
-        <v>0.06793708595135417</v>
+        <v>0.08463816680270542</v>
       </c>
       <c r="D1389" t="s">
         <v>353</v>
@@ -71276,22 +71276,22 @@
         <v>-1</v>
       </c>
       <c r="G1389">
-        <v>0.006712062914048646</v>
+        <v>0.006415361833197296</v>
       </c>
       <c r="H1389">
         <v>0.007195155832347295</v>
       </c>
       <c r="I1389">
-        <v>0.3630929182986482</v>
+        <v>0.3797939991499995</v>
       </c>
       <c r="J1389">
         <v>1.567010808513512</v>
       </c>
       <c r="K1389">
-        <v>2.12</v>
+        <v>2.02</v>
       </c>
       <c r="L1389">
-        <v>3.39</v>
+        <v>3.25</v>
       </c>
       <c r="M1389">
         <v>2.39</v>
@@ -71308,46 +71308,46 @@
     </row>
     <row r="1390" spans="1:16">
       <c r="A1390" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1390" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C1390">
-        <v>-0.4291764808581049</v>
+        <v>0.06793708595135417</v>
       </c>
       <c r="D1390" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E1390">
-        <v>-0.09010421107026767</v>
+        <v>-0.295155832347294</v>
       </c>
       <c r="F1390">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1390">
-        <v>0.007249176480858105</v>
+        <v>0.006712062914048646</v>
       </c>
       <c r="H1390">
-        <v>0.006930104211070267</v>
+        <v>0.007195155832347295</v>
       </c>
       <c r="I1390">
-        <v>0.3390722697878372</v>
+        <v>0.3630929182986482</v>
       </c>
       <c r="J1390">
         <v>1.567010808513512</v>
       </c>
       <c r="K1390">
-        <v>2.45</v>
+        <v>2.12</v>
       </c>
       <c r="L1390">
-        <v>3.41</v>
+        <v>3.39</v>
       </c>
       <c r="M1390">
-        <v>2.24</v>
+        <v>2.39</v>
       </c>
       <c r="N1390">
-        <v>3.42</v>
+        <v>3.45</v>
       </c>
       <c r="O1390">
         <v>1</v>
@@ -71358,46 +71358,46 @@
     </row>
     <row r="1391" spans="1:16">
       <c r="A1391" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1391" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C1391">
-        <v>0.06226697786621926</v>
+        <v>0.1265968697810838</v>
       </c>
       <c r="D1391" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E1391">
-        <v>0.05226697786621948</v>
+        <v>-0.295155832347294</v>
       </c>
       <c r="F1391">
         <v>-1</v>
       </c>
       <c r="G1391">
-        <v>0.006737733022133781</v>
+        <v>0.006833403130218916</v>
       </c>
       <c r="H1391">
-        <v>0.006727733022133781</v>
+        <v>0.007195155832347295</v>
       </c>
       <c r="I1391">
-        <v>0.009999999999999787</v>
+        <v>0.4217527021283778</v>
       </c>
       <c r="J1391">
         <v>1.567010808513512</v>
       </c>
       <c r="K1391">
-        <v>2.13</v>
+        <v>2.14</v>
       </c>
       <c r="L1391">
-        <v>3.4</v>
+        <v>3.48</v>
       </c>
       <c r="M1391">
-        <v>2.13</v>
+        <v>2.39</v>
       </c>
       <c r="N1391">
-        <v>3.39</v>
+        <v>3.45</v>
       </c>
       <c r="O1391">
         <v>1</v>
@@ -71408,146 +71408,146 @@
     </row>
     <row r="1392" spans="1:16">
       <c r="A1392" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B1392" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="C1392">
-        <v>-0.03922901074123963</v>
+        <v>-0.4291764808581049</v>
       </c>
       <c r="D1392" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E1392">
-        <v>-0.4417115523126549</v>
+        <v>-0.09010421107026767</v>
       </c>
       <c r="F1392">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1392">
-        <v>0.00653922901074124</v>
+        <v>0.007249176480858105</v>
       </c>
       <c r="H1392">
-        <v>0.007341711552312656</v>
+        <v>0.006930104211070267</v>
       </c>
       <c r="I1392">
-        <v>0.4024825415714153</v>
+        <v>0.3390722697878372</v>
       </c>
       <c r="J1392">
-        <v>1.628331193436257</v>
+        <v>1.567010808513512</v>
       </c>
       <c r="K1392">
-        <v>2.02</v>
+        <v>2.45</v>
       </c>
       <c r="L1392">
-        <v>3.25</v>
+        <v>3.41</v>
       </c>
       <c r="M1392">
-        <v>2.39</v>
+        <v>2.24</v>
       </c>
       <c r="N1392">
-        <v>3.45</v>
+        <v>3.42</v>
       </c>
       <c r="O1392">
         <v>1</v>
       </c>
       <c r="P1392" t="s">
-        <v>213</v>
+        <v>481</v>
       </c>
     </row>
     <row r="1393" spans="1:16">
       <c r="A1393" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B1393" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="C1393">
-        <v>-0.06206213008486516</v>
+        <v>0.06226697786621926</v>
       </c>
       <c r="D1393" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="E1393">
-        <v>-0.4417115523126549</v>
+        <v>0.01958654552567873</v>
       </c>
       <c r="F1393">
         <v>-1</v>
       </c>
       <c r="G1393">
-        <v>0.006842062130084866</v>
+        <v>0.006737733022133781</v>
       </c>
       <c r="H1393">
-        <v>0.007341711552312656</v>
+        <v>0.006820413454474322</v>
       </c>
       <c r="I1393">
-        <v>0.3796494222277897</v>
+        <v>0.04268043234054053</v>
       </c>
       <c r="J1393">
-        <v>1.628331193436257</v>
+        <v>1.567010808513512</v>
       </c>
       <c r="K1393">
-        <v>2.12</v>
+        <v>2.13</v>
       </c>
       <c r="L1393">
-        <v>3.39</v>
+        <v>3.4</v>
       </c>
       <c r="M1393">
-        <v>2.39</v>
+        <v>2.17</v>
       </c>
       <c r="N1393">
-        <v>3.45</v>
+        <v>3.42</v>
       </c>
       <c r="O1393">
         <v>1</v>
       </c>
       <c r="P1393" t="s">
-        <v>213</v>
+        <v>481</v>
       </c>
     </row>
     <row r="1394" spans="1:16">
       <c r="A1394" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B1394" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="C1394">
-        <v>-0.5794114239188302</v>
+        <v>-0.03922901074123963</v>
       </c>
       <c r="D1394" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E1394">
-        <v>-0.2274618732972167</v>
+        <v>-0.4417115523126549</v>
       </c>
       <c r="F1394">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1394">
-        <v>0.00739941142391883</v>
+        <v>0.00653922901074124</v>
       </c>
       <c r="H1394">
-        <v>0.007067461873297216</v>
+        <v>0.007341711552312656</v>
       </c>
       <c r="I1394">
-        <v>0.3519495506216135</v>
+        <v>0.4024825415714153</v>
       </c>
       <c r="J1394">
         <v>1.628331193436257</v>
       </c>
       <c r="K1394">
-        <v>2.45</v>
+        <v>2.02</v>
       </c>
       <c r="L1394">
-        <v>3.41</v>
+        <v>3.25</v>
       </c>
       <c r="M1394">
-        <v>2.24</v>
+        <v>2.39</v>
       </c>
       <c r="N1394">
-        <v>3.42</v>
+        <v>3.45</v>
       </c>
       <c r="O1394">
         <v>1</v>
@@ -71558,46 +71558,46 @@
     </row>
     <row r="1395" spans="1:16">
       <c r="A1395" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B1395" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C1395">
-        <v>-0.6119780477875558</v>
+        <v>-0.06206213008486516</v>
       </c>
       <c r="D1395" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E1395">
-        <v>-0.2274618732972167</v>
+        <v>-0.4417115523126549</v>
       </c>
       <c r="F1395">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1395">
-        <v>0.007431978047787557</v>
+        <v>0.006842062130084866</v>
       </c>
       <c r="H1395">
-        <v>0.007067461873297216</v>
+        <v>0.007341711552312656</v>
       </c>
       <c r="I1395">
-        <v>0.3845161744903391</v>
+        <v>0.3796494222277897</v>
       </c>
       <c r="J1395">
         <v>1.628331193436257</v>
       </c>
       <c r="K1395">
-        <v>2.47</v>
+        <v>2.12</v>
       </c>
       <c r="L1395">
-        <v>3.41</v>
+        <v>3.39</v>
       </c>
       <c r="M1395">
-        <v>2.24</v>
+        <v>2.39</v>
       </c>
       <c r="N1395">
-        <v>3.42</v>
+        <v>3.45</v>
       </c>
       <c r="O1395">
         <v>1</v>
@@ -71608,46 +71608,46 @@
     </row>
     <row r="1396" spans="1:16">
       <c r="A1396" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B1396" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C1396">
-        <v>-0.06834544201922776</v>
+        <v>-0.5794114239188302</v>
       </c>
       <c r="D1396" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E1396">
-        <v>-0.07834544201922755</v>
+        <v>-0.2274618732972167</v>
       </c>
       <c r="F1396">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1396">
-        <v>0.006868345442019228</v>
+        <v>0.00739941142391883</v>
       </c>
       <c r="H1396">
-        <v>0.006858345442019229</v>
+        <v>0.007067461873297216</v>
       </c>
       <c r="I1396">
-        <v>0.009999999999999787</v>
+        <v>0.3519495506216135</v>
       </c>
       <c r="J1396">
         <v>1.628331193436257</v>
       </c>
       <c r="K1396">
-        <v>2.13</v>
+        <v>2.45</v>
       </c>
       <c r="L1396">
-        <v>3.4</v>
+        <v>3.41</v>
       </c>
       <c r="M1396">
-        <v>2.13</v>
+        <v>2.24</v>
       </c>
       <c r="N1396">
-        <v>3.39</v>
+        <v>3.42</v>
       </c>
       <c r="O1396">
         <v>1</v>
@@ -71658,63 +71658,63 @@
     </row>
     <row r="1397" spans="1:16">
       <c r="A1397" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B1397" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="C1397">
-        <v>-0.1529078002366244</v>
+        <v>-0.06834544201922776</v>
       </c>
       <c r="D1397" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="E1397">
-        <v>-0.5762126943393726</v>
+        <v>-0.1134786897566782</v>
       </c>
       <c r="F1397">
         <v>-1</v>
       </c>
       <c r="G1397">
-        <v>0.006652907800236625</v>
+        <v>0.006868345442019228</v>
       </c>
       <c r="H1397">
-        <v>0.007476212694339373</v>
+        <v>0.006953478689756678</v>
       </c>
       <c r="I1397">
-        <v>0.4233048941027482</v>
+        <v>0.04513324773745042</v>
       </c>
       <c r="J1397">
-        <v>1.684607821899319</v>
+        <v>1.628331193436257</v>
       </c>
       <c r="K1397">
-        <v>2.02</v>
+        <v>2.13</v>
       </c>
       <c r="L1397">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M1397">
-        <v>2.39</v>
+        <v>2.17</v>
       </c>
       <c r="N1397">
-        <v>3.45</v>
+        <v>3.42</v>
       </c>
       <c r="O1397">
         <v>1</v>
       </c>
       <c r="P1397" t="s">
-        <v>482</v>
+        <v>213</v>
       </c>
     </row>
     <row r="1398" spans="1:16">
       <c r="A1398" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1398" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="C1398">
-        <v>-0.1813685824265563</v>
+        <v>-0.1529078002366244</v>
       </c>
       <c r="D1398" t="s">
         <v>353</v>
@@ -71726,22 +71726,22 @@
         <v>-1</v>
       </c>
       <c r="G1398">
-        <v>0.006961368582426557</v>
+        <v>0.006652907800236625</v>
       </c>
       <c r="H1398">
         <v>0.007476212694339373</v>
       </c>
       <c r="I1398">
-        <v>0.3948441119128163</v>
+        <v>0.4233048941027482</v>
       </c>
       <c r="J1398">
         <v>1.684607821899319</v>
       </c>
       <c r="K1398">
-        <v>2.12</v>
+        <v>2.02</v>
       </c>
       <c r="L1398">
-        <v>3.39</v>
+        <v>3.25</v>
       </c>
       <c r="M1398">
         <v>2.39</v>
@@ -71758,46 +71758,46 @@
     </row>
     <row r="1399" spans="1:16">
       <c r="A1399" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1399" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C1399">
-        <v>-0.7172891636533318</v>
+        <v>-0.1813685824265563</v>
       </c>
       <c r="D1399" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E1399">
-        <v>-0.3535215210544749</v>
+        <v>-0.5762126943393726</v>
       </c>
       <c r="F1399">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1399">
-        <v>0.007537289163653332</v>
+        <v>0.006961368582426557</v>
       </c>
       <c r="H1399">
-        <v>0.007193521521054475</v>
+        <v>0.007476212694339373</v>
       </c>
       <c r="I1399">
-        <v>0.363767642598857</v>
+        <v>0.3948441119128163</v>
       </c>
       <c r="J1399">
         <v>1.684607821899319</v>
       </c>
       <c r="K1399">
-        <v>2.45</v>
+        <v>2.12</v>
       </c>
       <c r="L1399">
-        <v>3.41</v>
+        <v>3.39</v>
       </c>
       <c r="M1399">
-        <v>2.24</v>
+        <v>2.39</v>
       </c>
       <c r="N1399">
-        <v>3.42</v>
+        <v>3.45</v>
       </c>
       <c r="O1399">
         <v>1</v>
@@ -71808,13 +71808,13 @@
     </row>
     <row r="1400" spans="1:16">
       <c r="A1400" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1400" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C1400">
-        <v>-0.7509813200913182</v>
+        <v>-0.7172891636533318</v>
       </c>
       <c r="D1400" t="s">
         <v>354</v>
@@ -71826,19 +71826,19 @@
         <v>1</v>
       </c>
       <c r="G1400">
-        <v>0.007570981320091319</v>
+        <v>0.007537289163653332</v>
       </c>
       <c r="H1400">
         <v>0.007193521521054475</v>
       </c>
       <c r="I1400">
-        <v>0.3974597990368434</v>
+        <v>0.363767642598857</v>
       </c>
       <c r="J1400">
         <v>1.684607821899319</v>
       </c>
       <c r="K1400">
-        <v>2.47</v>
+        <v>2.45</v>
       </c>
       <c r="L1400">
         <v>3.41</v>
@@ -71858,46 +71858,46 @@
     </row>
     <row r="1401" spans="1:16">
       <c r="A1401" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1401" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C1401">
-        <v>-0.1882146606455493</v>
+        <v>-0.7509813200913182</v>
       </c>
       <c r="D1401" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E1401">
-        <v>-0.198214660645549</v>
+        <v>-0.3535215210544749</v>
       </c>
       <c r="F1401">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1401">
-        <v>0.006988214660645549</v>
+        <v>0.007570981320091319</v>
       </c>
       <c r="H1401">
-        <v>0.006978214660645549</v>
+        <v>0.007193521521054475</v>
       </c>
       <c r="I1401">
-        <v>0.009999999999999787</v>
+        <v>0.3974597990368434</v>
       </c>
       <c r="J1401">
         <v>1.684607821899319</v>
       </c>
       <c r="K1401">
-        <v>2.13</v>
+        <v>2.47</v>
       </c>
       <c r="L1401">
-        <v>3.4</v>
+        <v>3.41</v>
       </c>
       <c r="M1401">
-        <v>2.13</v>
+        <v>2.24</v>
       </c>
       <c r="N1401">
-        <v>3.39</v>
+        <v>3.42</v>
       </c>
       <c r="O1401">
         <v>1</v>
@@ -71908,63 +71908,63 @@
     </row>
     <row r="1402" spans="1:16">
       <c r="A1402" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B1402" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="C1402">
-        <v>-0.2681206448917202</v>
+        <v>-0.1882146606455493</v>
       </c>
       <c r="D1402" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="E1402">
-        <v>-0.7125288818273328</v>
+        <v>-0.235598973521522</v>
       </c>
       <c r="F1402">
         <v>-1</v>
       </c>
       <c r="G1402">
-        <v>0.006768120644891721</v>
+        <v>0.006988214660645549</v>
       </c>
       <c r="H1402">
-        <v>0.007612528881827333</v>
+        <v>0.007075598973521523</v>
       </c>
       <c r="I1402">
-        <v>0.4444082369356126</v>
+        <v>0.04738431287597278</v>
       </c>
       <c r="J1402">
-        <v>1.741643883609763</v>
+        <v>1.684607821899319</v>
       </c>
       <c r="K1402">
-        <v>2.02</v>
+        <v>2.13</v>
       </c>
       <c r="L1402">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M1402">
-        <v>2.39</v>
+        <v>2.17</v>
       </c>
       <c r="N1402">
-        <v>3.45</v>
+        <v>3.42</v>
       </c>
       <c r="O1402">
         <v>1</v>
       </c>
       <c r="P1402" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="1403" spans="1:16">
       <c r="A1403" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1403" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="C1403">
-        <v>-0.3022850332526965</v>
+        <v>-0.2681206448917202</v>
       </c>
       <c r="D1403" t="s">
         <v>353</v>
@@ -71976,22 +71976,22 @@
         <v>-1</v>
       </c>
       <c r="G1403">
-        <v>0.007082285033252697</v>
+        <v>0.006768120644891721</v>
       </c>
       <c r="H1403">
         <v>0.007612528881827333</v>
       </c>
       <c r="I1403">
-        <v>0.4102438485746362</v>
+        <v>0.4444082369356126</v>
       </c>
       <c r="J1403">
         <v>1.741643883609763</v>
       </c>
       <c r="K1403">
-        <v>2.12</v>
+        <v>2.02</v>
       </c>
       <c r="L1403">
-        <v>3.39</v>
+        <v>3.25</v>
       </c>
       <c r="M1403">
         <v>2.39</v>
@@ -72008,46 +72008,46 @@
     </row>
     <row r="1404" spans="1:16">
       <c r="A1404" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1404" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C1404">
-        <v>-0.8570275148439181</v>
+        <v>-0.3022850332526965</v>
       </c>
       <c r="D1404" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E1404">
-        <v>-0.4812822992858683</v>
+        <v>-0.7125288818273328</v>
       </c>
       <c r="F1404">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1404">
-        <v>0.007677027514843919</v>
+        <v>0.007082285033252697</v>
       </c>
       <c r="H1404">
-        <v>0.007321282299285868</v>
+        <v>0.007612528881827333</v>
       </c>
       <c r="I1404">
-        <v>0.3757452155580498</v>
+        <v>0.4102438485746362</v>
       </c>
       <c r="J1404">
         <v>1.741643883609763</v>
       </c>
       <c r="K1404">
-        <v>2.45</v>
+        <v>2.12</v>
       </c>
       <c r="L1404">
-        <v>3.41</v>
+        <v>3.39</v>
       </c>
       <c r="M1404">
-        <v>2.24</v>
+        <v>2.39</v>
       </c>
       <c r="N1404">
-        <v>3.42</v>
+        <v>3.45</v>
       </c>
       <c r="O1404">
         <v>1</v>
@@ -72058,13 +72058,13 @@
     </row>
     <row r="1405" spans="1:16">
       <c r="A1405" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1405" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C1405">
-        <v>-0.8918603925161133</v>
+        <v>-0.8570275148439181</v>
       </c>
       <c r="D1405" t="s">
         <v>354</v>
@@ -72076,19 +72076,19 @@
         <v>1</v>
       </c>
       <c r="G1405">
-        <v>0.007711860392516113</v>
+        <v>0.007677027514843919</v>
       </c>
       <c r="H1405">
         <v>0.007321282299285868</v>
       </c>
       <c r="I1405">
-        <v>0.410578093230245</v>
+        <v>0.3757452155580498</v>
       </c>
       <c r="J1405">
         <v>1.741643883609763</v>
       </c>
       <c r="K1405">
-        <v>2.47</v>
+        <v>2.45</v>
       </c>
       <c r="L1405">
         <v>3.41</v>
@@ -72108,46 +72108,46 @@
     </row>
     <row r="1406" spans="1:16">
       <c r="A1406" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1406" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C1406">
-        <v>-0.3097014720887943</v>
+        <v>-0.8918603925161133</v>
       </c>
       <c r="D1406" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E1406">
-        <v>-0.3197014720887941</v>
+        <v>-0.4812822992858683</v>
       </c>
       <c r="F1406">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1406">
-        <v>0.007109701472088795</v>
+        <v>0.007711860392516113</v>
       </c>
       <c r="H1406">
-        <v>0.007099701472088794</v>
+        <v>0.007321282299285868</v>
       </c>
       <c r="I1406">
-        <v>0.009999999999999787</v>
+        <v>0.410578093230245</v>
       </c>
       <c r="J1406">
         <v>1.741643883609763</v>
       </c>
       <c r="K1406">
-        <v>2.13</v>
+        <v>2.47</v>
       </c>
       <c r="L1406">
-        <v>3.4</v>
+        <v>3.41</v>
       </c>
       <c r="M1406">
-        <v>2.13</v>
+        <v>2.24</v>
       </c>
       <c r="N1406">
-        <v>3.39</v>
+        <v>3.42</v>
       </c>
       <c r="O1406">
         <v>1</v>
@@ -72158,63 +72158,63 @@
     </row>
     <row r="1407" spans="1:16">
       <c r="A1407" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B1407" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="C1407">
-        <v>-0.3559846389349581</v>
+        <v>-0.3097014720887943</v>
       </c>
       <c r="D1407" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="E1407">
-        <v>-0.8164867757695795</v>
+        <v>-0.3593672274331845</v>
       </c>
       <c r="F1407">
         <v>-1</v>
       </c>
       <c r="G1407">
-        <v>0.006855984638934958</v>
+        <v>0.007109701472088795</v>
       </c>
       <c r="H1407">
-        <v>0.00771648677576958</v>
+        <v>0.007199367227433184</v>
       </c>
       <c r="I1407">
-        <v>0.4605021368346214</v>
+        <v>0.04966575534439022</v>
       </c>
       <c r="J1407">
-        <v>1.785140910363841</v>
+        <v>1.741643883609763</v>
       </c>
       <c r="K1407">
-        <v>2.02</v>
+        <v>2.13</v>
       </c>
       <c r="L1407">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M1407">
-        <v>2.39</v>
+        <v>2.17</v>
       </c>
       <c r="N1407">
-        <v>3.45</v>
+        <v>3.42</v>
       </c>
       <c r="O1407">
         <v>1</v>
       </c>
       <c r="P1407" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="1408" spans="1:16">
       <c r="A1408" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1408" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="C1408">
-        <v>-0.3944987299713425</v>
+        <v>-0.3559846389349581</v>
       </c>
       <c r="D1408" t="s">
         <v>353</v>
@@ -72226,22 +72226,22 @@
         <v>-1</v>
       </c>
       <c r="G1408">
-        <v>0.007174498729971343</v>
+        <v>0.006855984638934958</v>
       </c>
       <c r="H1408">
         <v>0.00771648677576958</v>
       </c>
       <c r="I1408">
-        <v>0.421988045798237</v>
+        <v>0.4605021368346214</v>
       </c>
       <c r="J1408">
         <v>1.785140910363841</v>
       </c>
       <c r="K1408">
-        <v>2.12</v>
+        <v>2.02</v>
       </c>
       <c r="L1408">
-        <v>3.39</v>
+        <v>3.25</v>
       </c>
       <c r="M1408">
         <v>2.39</v>
@@ -72258,46 +72258,46 @@
     </row>
     <row r="1409" spans="1:16">
       <c r="A1409" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1409" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C1409">
-        <v>-0.9635952303914097</v>
+        <v>-0.3944987299713425</v>
       </c>
       <c r="D1409" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E1409">
-        <v>-0.5787156392150035</v>
+        <v>-0.8164867757695795</v>
       </c>
       <c r="F1409">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1409">
-        <v>0.00778359523039141</v>
+        <v>0.007174498729971343</v>
       </c>
       <c r="H1409">
-        <v>0.007418715639215003</v>
+        <v>0.00771648677576958</v>
       </c>
       <c r="I1409">
-        <v>0.3848795911764062</v>
+        <v>0.421988045798237</v>
       </c>
       <c r="J1409">
         <v>1.785140910363841</v>
       </c>
       <c r="K1409">
-        <v>2.45</v>
+        <v>2.12</v>
       </c>
       <c r="L1409">
-        <v>3.41</v>
+        <v>3.39</v>
       </c>
       <c r="M1409">
-        <v>2.24</v>
+        <v>2.39</v>
       </c>
       <c r="N1409">
-        <v>3.42</v>
+        <v>3.45</v>
       </c>
       <c r="O1409">
         <v>1</v>
@@ -72308,13 +72308,13 @@
     </row>
     <row r="1410" spans="1:16">
       <c r="A1410" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1410" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C1410">
-        <v>-0.9992980485986864</v>
+        <v>-0.9635952303914097</v>
       </c>
       <c r="D1410" t="s">
         <v>354</v>
@@ -72326,19 +72326,19 @@
         <v>1</v>
       </c>
       <c r="G1410">
-        <v>0.007819298048598686</v>
+        <v>0.00778359523039141</v>
       </c>
       <c r="H1410">
         <v>0.007418715639215003</v>
       </c>
       <c r="I1410">
-        <v>0.420582409383683</v>
+        <v>0.3848795911764062</v>
       </c>
       <c r="J1410">
         <v>1.785140910363841</v>
       </c>
       <c r="K1410">
-        <v>2.47</v>
+        <v>2.45</v>
       </c>
       <c r="L1410">
         <v>3.41</v>
@@ -72358,46 +72358,46 @@
     </row>
     <row r="1411" spans="1:16">
       <c r="A1411" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1411" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C1411">
-        <v>-0.4023501390749806</v>
+        <v>-0.9992980485986864</v>
       </c>
       <c r="D1411" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E1411">
-        <v>-0.4123501390749804</v>
+        <v>-0.5787156392150035</v>
       </c>
       <c r="F1411">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1411">
-        <v>0.00720235013907498</v>
+        <v>0.007819298048598686</v>
       </c>
       <c r="H1411">
-        <v>0.00719235013907498</v>
+        <v>0.007418715639215003</v>
       </c>
       <c r="I1411">
-        <v>0.009999999999999787</v>
+        <v>0.420582409383683</v>
       </c>
       <c r="J1411">
         <v>1.785140910363841</v>
       </c>
       <c r="K1411">
-        <v>2.13</v>
+        <v>2.47</v>
       </c>
       <c r="L1411">
-        <v>3.4</v>
+        <v>3.41</v>
       </c>
       <c r="M1411">
-        <v>2.13</v>
+        <v>2.24</v>
       </c>
       <c r="N1411">
-        <v>3.39</v>
+        <v>3.42</v>
       </c>
       <c r="O1411">
         <v>1</v>
@@ -72408,63 +72408,63 @@
     </row>
     <row r="1412" spans="1:16">
       <c r="A1412" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B1412" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C1412">
-        <v>-0.5347589581319472</v>
+        <v>-0.4023501390749806</v>
       </c>
       <c r="D1412" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="E1412">
-        <v>-0.9313883622876107</v>
+        <v>-0.4537557754895341</v>
       </c>
       <c r="F1412">
         <v>-1</v>
       </c>
       <c r="G1412">
-        <v>0.007054758958131947</v>
+        <v>0.00720235013907498</v>
       </c>
       <c r="H1412">
-        <v>0.007831388362287611</v>
+        <v>0.007293755775489534</v>
       </c>
       <c r="I1412">
-        <v>0.3966294041556635</v>
+        <v>0.05140563641455342</v>
       </c>
       <c r="J1412">
-        <v>1.833216887986448</v>
+        <v>1.785140910363841</v>
       </c>
       <c r="K1412">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="L1412">
-        <v>3.26</v>
+        <v>3.4</v>
       </c>
       <c r="M1412">
-        <v>2.39</v>
+        <v>2.17</v>
       </c>
       <c r="N1412">
-        <v>3.45</v>
+        <v>3.42</v>
       </c>
       <c r="O1412">
         <v>1</v>
       </c>
       <c r="P1412" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="1413" spans="1:16">
       <c r="A1413" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1413" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="C1413">
-        <v>-0.533105100453438</v>
+        <v>-0.4530981137326249</v>
       </c>
       <c r="D1413" t="s">
         <v>353</v>
@@ -72476,22 +72476,22 @@
         <v>-1</v>
       </c>
       <c r="G1413">
-        <v>0.006653105100453438</v>
+        <v>0.006953098113732625</v>
       </c>
       <c r="H1413">
         <v>0.007831388362287611</v>
       </c>
       <c r="I1413">
-        <v>0.3982832618341727</v>
+        <v>0.4782902485549858</v>
       </c>
       <c r="J1413">
         <v>1.833216887986448</v>
       </c>
       <c r="K1413">
-        <v>1.96</v>
+        <v>2.02</v>
       </c>
       <c r="L1413">
-        <v>3.06</v>
+        <v>3.25</v>
       </c>
       <c r="M1413">
         <v>2.39</v>
@@ -72508,13 +72508,13 @@
     </row>
     <row r="1414" spans="1:16">
       <c r="A1414" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1414" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="C1414">
-        <v>-0.4964198025312694</v>
+        <v>-0.533105100453438</v>
       </c>
       <c r="D1414" t="s">
         <v>353</v>
@@ -72526,22 +72526,22 @@
         <v>-1</v>
       </c>
       <c r="G1414">
-        <v>0.00727641980253127</v>
+        <v>0.006653105100453438</v>
       </c>
       <c r="H1414">
         <v>0.007831388362287611</v>
       </c>
       <c r="I1414">
-        <v>0.4349685597563413</v>
+        <v>0.3982832618341727</v>
       </c>
       <c r="J1414">
         <v>1.833216887986448</v>
       </c>
       <c r="K1414">
-        <v>2.12</v>
+        <v>1.96</v>
       </c>
       <c r="L1414">
-        <v>3.39</v>
+        <v>3.06</v>
       </c>
       <c r="M1414">
         <v>2.39</v>
@@ -72558,46 +72558,46 @@
     </row>
     <row r="1415" spans="1:16">
       <c r="A1415" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1415" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C1415">
-        <v>-1.081381375566798</v>
+        <v>-0.4964198025312694</v>
       </c>
       <c r="D1415" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E1415">
-        <v>-0.6864058290896438</v>
+        <v>-0.9313883622876107</v>
       </c>
       <c r="F1415">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1415">
-        <v>0.007901381375566799</v>
+        <v>0.00727641980253127</v>
       </c>
       <c r="H1415">
-        <v>0.007526405829089644</v>
+        <v>0.007831388362287611</v>
       </c>
       <c r="I1415">
-        <v>0.3949755464771538</v>
+        <v>0.4349685597563413</v>
       </c>
       <c r="J1415">
         <v>1.833216887986448</v>
       </c>
       <c r="K1415">
-        <v>2.45</v>
+        <v>2.12</v>
       </c>
       <c r="L1415">
-        <v>3.41</v>
+        <v>3.39</v>
       </c>
       <c r="M1415">
-        <v>2.24</v>
+        <v>2.39</v>
       </c>
       <c r="N1415">
-        <v>3.42</v>
+        <v>3.45</v>
       </c>
       <c r="O1415">
         <v>1</v>
@@ -72608,13 +72608,13 @@
     </row>
     <row r="1416" spans="1:16">
       <c r="A1416" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1416" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C1416">
-        <v>-1.118045713326526</v>
+        <v>-1.081381375566798</v>
       </c>
       <c r="D1416" t="s">
         <v>354</v>
@@ -72626,19 +72626,19 @@
         <v>1</v>
       </c>
       <c r="G1416">
-        <v>0.007938045713326528</v>
+        <v>0.007901381375566799</v>
       </c>
       <c r="H1416">
         <v>0.007526405829089644</v>
       </c>
       <c r="I1416">
-        <v>0.4316398842368825</v>
+        <v>0.3949755464771538</v>
       </c>
       <c r="J1416">
         <v>1.833216887986448</v>
       </c>
       <c r="K1416">
-        <v>2.47</v>
+        <v>2.45</v>
       </c>
       <c r="L1416">
         <v>3.41</v>
@@ -72658,46 +72658,46 @@
     </row>
     <row r="1417" spans="1:16">
       <c r="A1417" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1417" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C1417">
-        <v>-0.5047519714111339</v>
+        <v>-1.118045713326526</v>
       </c>
       <c r="D1417" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E1417">
-        <v>-0.5147519714111337</v>
+        <v>-0.6864058290896438</v>
       </c>
       <c r="F1417">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1417">
-        <v>0.007304751971411135</v>
+        <v>0.007938045713326528</v>
       </c>
       <c r="H1417">
-        <v>0.007294751971411134</v>
+        <v>0.007526405829089644</v>
       </c>
       <c r="I1417">
-        <v>0.009999999999999787</v>
+        <v>0.4316398842368825</v>
       </c>
       <c r="J1417">
         <v>1.833216887986448</v>
       </c>
       <c r="K1417">
-        <v>2.13</v>
+        <v>2.47</v>
       </c>
       <c r="L1417">
-        <v>3.4</v>
+        <v>3.41</v>
       </c>
       <c r="M1417">
-        <v>2.13</v>
+        <v>2.24</v>
       </c>
       <c r="N1417">
-        <v>3.39</v>
+        <v>3.42</v>
       </c>
       <c r="O1417">
         <v>1</v>
@@ -72708,63 +72708,63 @@
     </row>
     <row r="1418" spans="1:16">
       <c r="A1418" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B1418" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C1418">
-        <v>-0.7850334904387175</v>
+        <v>-0.5047519714111339</v>
       </c>
       <c r="D1418" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="E1418">
-        <v>-1.220352677366442</v>
+        <v>-0.5580806469305917</v>
       </c>
       <c r="F1418">
         <v>-1</v>
       </c>
       <c r="G1418">
-        <v>0.007305033490438717</v>
+        <v>0.007304751971411135</v>
       </c>
       <c r="H1418">
-        <v>0.008120352677366443</v>
+        <v>0.007398080646930591</v>
       </c>
       <c r="I1418">
-        <v>0.4353191869277246</v>
+        <v>0.05332867551945775</v>
       </c>
       <c r="J1418">
-        <v>1.954122459149139</v>
+        <v>1.833216887986448</v>
       </c>
       <c r="K1418">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="L1418">
-        <v>3.26</v>
+        <v>3.4</v>
       </c>
       <c r="M1418">
-        <v>2.39</v>
+        <v>2.17</v>
       </c>
       <c r="N1418">
-        <v>3.45</v>
+        <v>3.42</v>
       </c>
       <c r="O1418">
         <v>1</v>
       </c>
       <c r="P1418" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="1419" spans="1:16">
       <c r="A1419" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1419" t="s">
         <v>228</v>
       </c>
       <c r="C1419">
-        <v>-0.7700800199323123</v>
+        <v>-0.7850334904387175</v>
       </c>
       <c r="D1419" t="s">
         <v>353</v>
@@ -72776,22 +72776,22 @@
         <v>-1</v>
       </c>
       <c r="G1419">
-        <v>0.006890080019932313</v>
+        <v>0.007305033490438717</v>
       </c>
       <c r="H1419">
         <v>0.008120352677366443</v>
       </c>
       <c r="I1419">
-        <v>0.4502726574341298</v>
+        <v>0.4353191869277246</v>
       </c>
       <c r="J1419">
         <v>1.954122459149139</v>
       </c>
       <c r="K1419">
-        <v>1.96</v>
+        <v>2.07</v>
       </c>
       <c r="L1419">
-        <v>3.06</v>
+        <v>3.26</v>
       </c>
       <c r="M1419">
         <v>2.39</v>
@@ -72808,13 +72808,13 @@
     </row>
     <row r="1420" spans="1:16">
       <c r="A1420" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1420" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="C1420">
-        <v>-0.7527396133961752</v>
+        <v>-0.7700800199323123</v>
       </c>
       <c r="D1420" t="s">
         <v>353</v>
@@ -72826,22 +72826,22 @@
         <v>-1</v>
       </c>
       <c r="G1420">
-        <v>0.007532739613396176</v>
+        <v>0.006890080019932313</v>
       </c>
       <c r="H1420">
         <v>0.008120352677366443</v>
       </c>
       <c r="I1420">
-        <v>0.4676130639702669</v>
+        <v>0.4502726574341298</v>
       </c>
       <c r="J1420">
         <v>1.954122459149139</v>
       </c>
       <c r="K1420">
-        <v>2.12</v>
+        <v>1.96</v>
       </c>
       <c r="L1420">
-        <v>3.39</v>
+        <v>3.06</v>
       </c>
       <c r="M1420">
         <v>2.39</v>
@@ -72858,46 +72858,46 @@
     </row>
     <row r="1421" spans="1:16">
       <c r="A1421" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1421" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C1421">
-        <v>-1.377600024915391</v>
+        <v>-0.7527396133961752</v>
       </c>
       <c r="D1421" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E1421">
-        <v>-0.9572343084940718</v>
+        <v>-1.220352677366442</v>
       </c>
       <c r="F1421">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1421">
-        <v>0.008197600024915392</v>
+        <v>0.007532739613396176</v>
       </c>
       <c r="H1421">
-        <v>0.007797234308494072</v>
+        <v>0.008120352677366443</v>
       </c>
       <c r="I1421">
-        <v>0.420365716421319</v>
+        <v>0.4676130639702669</v>
       </c>
       <c r="J1421">
         <v>1.954122459149139</v>
       </c>
       <c r="K1421">
-        <v>2.45</v>
+        <v>2.12</v>
       </c>
       <c r="L1421">
-        <v>3.41</v>
+        <v>3.39</v>
       </c>
       <c r="M1421">
-        <v>2.24</v>
+        <v>2.39</v>
       </c>
       <c r="N1421">
-        <v>3.42</v>
+        <v>3.45</v>
       </c>
       <c r="O1421">
         <v>1</v>
@@ -72908,13 +72908,13 @@
     </row>
     <row r="1422" spans="1:16">
       <c r="A1422" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1422" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C1422">
-        <v>-1.416682474098374</v>
+        <v>-1.377600024915391</v>
       </c>
       <c r="D1422" t="s">
         <v>354</v>
@@ -72926,19 +72926,19 @@
         <v>1</v>
       </c>
       <c r="G1422">
-        <v>0.008236682474098374</v>
+        <v>0.008197600024915392</v>
       </c>
       <c r="H1422">
         <v>0.007797234308494072</v>
       </c>
       <c r="I1422">
-        <v>0.4594481656043019</v>
+        <v>0.420365716421319</v>
       </c>
       <c r="J1422">
         <v>1.954122459149139</v>
       </c>
       <c r="K1422">
-        <v>2.47</v>
+        <v>2.45</v>
       </c>
       <c r="L1422">
         <v>3.41</v>
@@ -72958,46 +72958,46 @@
     </row>
     <row r="1423" spans="1:16">
       <c r="A1423" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1423" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C1423">
-        <v>-0.762280837987666</v>
+        <v>-1.416682474098374</v>
       </c>
       <c r="D1423" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E1423">
-        <v>-0.7722808379876658</v>
+        <v>-0.9572343084940718</v>
       </c>
       <c r="F1423">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1423">
-        <v>0.007562280837987666</v>
+        <v>0.008236682474098374</v>
       </c>
       <c r="H1423">
-        <v>0.007552280837987667</v>
+        <v>0.007797234308494072</v>
       </c>
       <c r="I1423">
-        <v>0.009999999999999787</v>
+        <v>0.4594481656043019</v>
       </c>
       <c r="J1423">
         <v>1.954122459149139</v>
       </c>
       <c r="K1423">
-        <v>2.13</v>
+        <v>2.47</v>
       </c>
       <c r="L1423">
-        <v>3.4</v>
+        <v>3.41</v>
       </c>
       <c r="M1423">
-        <v>2.13</v>
+        <v>2.24</v>
       </c>
       <c r="N1423">
-        <v>3.39</v>
+        <v>3.42</v>
       </c>
       <c r="O1423">
         <v>1</v>
@@ -73008,63 +73008,63 @@
     </row>
     <row r="1424" spans="1:16">
       <c r="A1424" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B1424" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C1424">
-        <v>-0.3780353550827891</v>
+        <v>-0.762280837987666</v>
       </c>
       <c r="D1424" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="E1424">
-        <v>-0.7422982135958502</v>
+        <v>-0.8204457363536317</v>
       </c>
       <c r="F1424">
         <v>-1</v>
       </c>
       <c r="G1424">
-        <v>0.00649803535508279</v>
+        <v>0.007562280837987666</v>
       </c>
       <c r="H1424">
-        <v>0.007642298213595851</v>
+        <v>0.007660445736353632</v>
       </c>
       <c r="I1424">
-        <v>0.3642628585130612</v>
+        <v>0.05816489836596572</v>
       </c>
       <c r="J1424">
-        <v>1.754099670960607</v>
+        <v>1.954122459149139</v>
       </c>
       <c r="K1424">
-        <v>1.96</v>
+        <v>2.13</v>
       </c>
       <c r="L1424">
-        <v>3.06</v>
+        <v>3.4</v>
       </c>
       <c r="M1424">
-        <v>2.39</v>
+        <v>2.17</v>
       </c>
       <c r="N1424">
-        <v>3.45</v>
+        <v>3.42</v>
       </c>
       <c r="O1424">
         <v>1</v>
       </c>
       <c r="P1424" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="1425" spans="1:16">
       <c r="A1425" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1425" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C1425">
-        <v>-0.3786913024364864</v>
+        <v>-0.3780353550827891</v>
       </c>
       <c r="D1425" t="s">
         <v>353</v>
@@ -73076,22 +73076,22 @@
         <v>-1</v>
       </c>
       <c r="G1425">
-        <v>0.007058691302436486</v>
+        <v>0.00649803535508279</v>
       </c>
       <c r="H1425">
         <v>0.007642298213595851</v>
       </c>
       <c r="I1425">
-        <v>0.3636069111593638</v>
+        <v>0.3642628585130612</v>
       </c>
       <c r="J1425">
         <v>1.754099670960607</v>
       </c>
       <c r="K1425">
-        <v>2.12</v>
+        <v>1.96</v>
       </c>
       <c r="L1425">
-        <v>3.34</v>
+        <v>3.06</v>
       </c>
       <c r="M1425">
         <v>2.39</v>
@@ -73108,46 +73108,46 @@
     </row>
     <row r="1426" spans="1:16">
       <c r="A1426" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1426" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C1426">
-        <v>-0.9326261872726991</v>
+        <v>-0.3786913024364864</v>
       </c>
       <c r="D1426" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E1426">
-        <v>-0.5091832629517596</v>
+        <v>-0.7422982135958502</v>
       </c>
       <c r="F1426">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1426">
-        <v>0.007732626187272698</v>
+        <v>0.007058691302436486</v>
       </c>
       <c r="H1426">
-        <v>0.00734918326295176</v>
+        <v>0.007642298213595851</v>
       </c>
       <c r="I1426">
-        <v>0.4234429243209394</v>
+        <v>0.3636069111593638</v>
       </c>
       <c r="J1426">
         <v>1.754099670960607</v>
       </c>
       <c r="K1426">
-        <v>2.47</v>
+        <v>2.12</v>
       </c>
       <c r="L1426">
-        <v>3.4</v>
+        <v>3.34</v>
       </c>
       <c r="M1426">
-        <v>2.24</v>
+        <v>2.39</v>
       </c>
       <c r="N1426">
-        <v>3.42</v>
+        <v>3.45</v>
       </c>
       <c r="O1426">
         <v>1</v>
@@ -73158,13 +73158,13 @@
     </row>
     <row r="1427" spans="1:16">
       <c r="A1427" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1427" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C1427">
-        <v>-0.9226261872726988</v>
+        <v>-0.9326261872726991</v>
       </c>
       <c r="D1427" t="s">
         <v>354</v>
@@ -73176,13 +73176,13 @@
         <v>1</v>
       </c>
       <c r="G1427">
-        <v>0.007742626187272699</v>
+        <v>0.007732626187272698</v>
       </c>
       <c r="H1427">
         <v>0.00734918326295176</v>
       </c>
       <c r="I1427">
-        <v>0.4134429243209392</v>
+        <v>0.4234429243209394</v>
       </c>
       <c r="J1427">
         <v>1.754099670960607</v>
@@ -73191,7 +73191,7 @@
         <v>2.47</v>
       </c>
       <c r="L1427">
-        <v>3.41</v>
+        <v>3.4</v>
       </c>
       <c r="M1427">
         <v>2.24</v>
@@ -73208,46 +73208,46 @@
     </row>
     <row r="1428" spans="1:16">
       <c r="A1428" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1428" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C1428">
-        <v>-0.3763962859845162</v>
+        <v>-0.9226261872726988</v>
       </c>
       <c r="D1428" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E1428">
-        <v>-0.346232299146092</v>
+        <v>-0.5091832629517596</v>
       </c>
       <c r="F1428">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1428">
-        <v>0.007236396285984517</v>
+        <v>0.007742626187272699</v>
       </c>
       <c r="H1428">
-        <v>0.007126232299146093</v>
+        <v>0.00734918326295176</v>
       </c>
       <c r="I1428">
-        <v>-0.03016398683842425</v>
+        <v>0.4134429243209392</v>
       </c>
       <c r="J1428">
         <v>1.754099670960607</v>
       </c>
       <c r="K1428">
-        <v>2.17</v>
+        <v>2.47</v>
       </c>
       <c r="L1428">
-        <v>3.43</v>
+        <v>3.41</v>
       </c>
       <c r="M1428">
-        <v>2.13</v>
+        <v>2.24</v>
       </c>
       <c r="N1428">
-        <v>3.39</v>
+        <v>3.42</v>
       </c>
       <c r="O1428">
         <v>1</v>
@@ -73258,96 +73258,96 @@
     </row>
     <row r="1429" spans="1:16">
       <c r="A1429" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B1429" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C1429">
-        <v>-0.1940791576706657</v>
+        <v>-0.3763962859845162</v>
       </c>
       <c r="D1429" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="E1429">
-        <v>-0.5341741447324955</v>
+        <v>-0.3863962859845165</v>
       </c>
       <c r="F1429">
         <v>-1</v>
       </c>
       <c r="G1429">
-        <v>0.006874079157670666</v>
+        <v>0.007236396285984517</v>
       </c>
       <c r="H1429">
-        <v>0.007434174144732496</v>
+        <v>0.007226396285984517</v>
       </c>
       <c r="I1429">
-        <v>0.3400949870618297</v>
+        <v>0.01000000000000023</v>
       </c>
       <c r="J1429">
-        <v>1.66701847059937</v>
+        <v>1.754099670960607</v>
       </c>
       <c r="K1429">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="L1429">
-        <v>3.34</v>
+        <v>3.43</v>
       </c>
       <c r="M1429">
-        <v>2.39</v>
+        <v>2.17</v>
       </c>
       <c r="N1429">
-        <v>3.45</v>
+        <v>3.42</v>
       </c>
       <c r="O1429">
         <v>1</v>
       </c>
       <c r="P1429" t="s">
-        <v>215</v>
+        <v>487</v>
       </c>
     </row>
     <row r="1430" spans="1:16">
       <c r="A1430" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1430" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C1430">
-        <v>-0.7175356223804452</v>
+        <v>-0.1940791576706657</v>
       </c>
       <c r="D1430" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E1430">
-        <v>-0.3141213741425903</v>
+        <v>-0.5341741447324955</v>
       </c>
       <c r="F1430">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1430">
-        <v>0.007517535622380445</v>
+        <v>0.006874079157670666</v>
       </c>
       <c r="H1430">
-        <v>0.00715412137414259</v>
+        <v>0.007434174144732496</v>
       </c>
       <c r="I1430">
-        <v>0.4034142482378549</v>
+        <v>0.3400949870618297</v>
       </c>
       <c r="J1430">
         <v>1.66701847059937</v>
       </c>
       <c r="K1430">
-        <v>2.47</v>
+        <v>2.12</v>
       </c>
       <c r="L1430">
-        <v>3.4</v>
+        <v>3.34</v>
       </c>
       <c r="M1430">
-        <v>2.24</v>
+        <v>2.39</v>
       </c>
       <c r="N1430">
-        <v>3.42</v>
+        <v>3.45</v>
       </c>
       <c r="O1430">
         <v>1</v>
@@ -73358,13 +73358,13 @@
     </row>
     <row r="1431" spans="1:16">
       <c r="A1431" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1431" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C1431">
-        <v>-0.707535622380445</v>
+        <v>-0.7175356223804452</v>
       </c>
       <c r="D1431" t="s">
         <v>354</v>
@@ -73376,13 +73376,13 @@
         <v>1</v>
       </c>
       <c r="G1431">
-        <v>0.007527535622380445</v>
+        <v>0.007517535622380445</v>
       </c>
       <c r="H1431">
         <v>0.00715412137414259</v>
       </c>
       <c r="I1431">
-        <v>0.3934142482378546</v>
+        <v>0.4034142482378549</v>
       </c>
       <c r="J1431">
         <v>1.66701847059937</v>
@@ -73391,7 +73391,7 @@
         <v>2.47</v>
       </c>
       <c r="L1431">
-        <v>3.41</v>
+        <v>3.4</v>
       </c>
       <c r="M1431">
         <v>2.24</v>
@@ -73408,46 +73408,46 @@
     </row>
     <row r="1432" spans="1:16">
       <c r="A1432" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1432" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C1432">
-        <v>-0.1874300812006338</v>
+        <v>-0.707535622380445</v>
       </c>
       <c r="D1432" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E1432">
-        <v>-0.1607493423766586</v>
+        <v>-0.3141213741425903</v>
       </c>
       <c r="F1432">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1432">
-        <v>0.007047430081200634</v>
+        <v>0.007527535622380445</v>
       </c>
       <c r="H1432">
-        <v>0.006940749342376659</v>
+        <v>0.00715412137414259</v>
       </c>
       <c r="I1432">
-        <v>-0.02668073882397515</v>
+        <v>0.3934142482378546</v>
       </c>
       <c r="J1432">
         <v>1.66701847059937</v>
       </c>
       <c r="K1432">
-        <v>2.17</v>
+        <v>2.47</v>
       </c>
       <c r="L1432">
-        <v>3.43</v>
+        <v>3.41</v>
       </c>
       <c r="M1432">
-        <v>2.13</v>
+        <v>2.24</v>
       </c>
       <c r="N1432">
-        <v>3.39</v>
+        <v>3.42</v>
       </c>
       <c r="O1432">
         <v>1</v>
@@ -73458,96 +73458,96 @@
     </row>
     <row r="1433" spans="1:16">
       <c r="A1433" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B1433" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C1433">
-        <v>-0.08362420353382438</v>
+        <v>-0.1874300812006338</v>
       </c>
       <c r="D1433" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="E1433">
-        <v>-0.4096518143612453</v>
+        <v>-0.197430081200634</v>
       </c>
       <c r="F1433">
         <v>-1</v>
       </c>
       <c r="G1433">
-        <v>0.006763624203533825</v>
+        <v>0.007047430081200634</v>
       </c>
       <c r="H1433">
-        <v>0.007309651814361245</v>
+        <v>0.007037430081200635</v>
       </c>
       <c r="I1433">
-        <v>0.3260276108274209</v>
+        <v>0.01000000000000023</v>
       </c>
       <c r="J1433">
-        <v>1.614917077138596</v>
+        <v>1.66701847059937</v>
       </c>
       <c r="K1433">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="L1433">
-        <v>3.34</v>
+        <v>3.43</v>
       </c>
       <c r="M1433">
-        <v>2.39</v>
+        <v>2.17</v>
       </c>
       <c r="N1433">
-        <v>3.45</v>
+        <v>3.42</v>
       </c>
       <c r="O1433">
         <v>1</v>
       </c>
       <c r="P1433" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="1434" spans="1:16">
       <c r="A1434" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1434" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C1434">
-        <v>-0.5888451805323331</v>
+        <v>-0.08362420353382438</v>
       </c>
       <c r="D1434" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E1434">
-        <v>-0.1974142527904563</v>
+        <v>-0.4096518143612453</v>
       </c>
       <c r="F1434">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1434">
-        <v>0.007388845180532333</v>
+        <v>0.006763624203533825</v>
       </c>
       <c r="H1434">
-        <v>0.007037414252790457</v>
+        <v>0.007309651814361245</v>
       </c>
       <c r="I1434">
-        <v>0.3914309277418768</v>
+        <v>0.3260276108274209</v>
       </c>
       <c r="J1434">
         <v>1.614917077138596</v>
       </c>
       <c r="K1434">
-        <v>2.47</v>
+        <v>2.12</v>
       </c>
       <c r="L1434">
-        <v>3.4</v>
+        <v>3.34</v>
       </c>
       <c r="M1434">
-        <v>2.24</v>
+        <v>2.39</v>
       </c>
       <c r="N1434">
-        <v>3.42</v>
+        <v>3.45</v>
       </c>
       <c r="O1434">
         <v>1</v>
@@ -73558,13 +73558,13 @@
     </row>
     <row r="1435" spans="1:16">
       <c r="A1435" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1435" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C1435">
-        <v>-0.5788451805323329</v>
+        <v>-0.5888451805323331</v>
       </c>
       <c r="D1435" t="s">
         <v>354</v>
@@ -73576,13 +73576,13 @@
         <v>1</v>
       </c>
       <c r="G1435">
-        <v>0.007398845180532334</v>
+        <v>0.007388845180532333</v>
       </c>
       <c r="H1435">
         <v>0.007037414252790457</v>
       </c>
       <c r="I1435">
-        <v>0.3814309277418766</v>
+        <v>0.3914309277418768</v>
       </c>
       <c r="J1435">
         <v>1.614917077138596</v>
@@ -73591,7 +73591,7 @@
         <v>2.47</v>
       </c>
       <c r="L1435">
-        <v>3.41</v>
+        <v>3.4</v>
       </c>
       <c r="M1435">
         <v>2.24</v>
@@ -73608,46 +73608,46 @@
     </row>
     <row r="1436" spans="1:16">
       <c r="A1436" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1436" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C1436">
-        <v>-0.07437005739075397</v>
+        <v>-0.5788451805323329</v>
       </c>
       <c r="D1436" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E1436">
-        <v>-0.04977337430521001</v>
+        <v>-0.1974142527904563</v>
       </c>
       <c r="F1436">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1436">
-        <v>0.006934370057390755</v>
+        <v>0.007398845180532334</v>
       </c>
       <c r="H1436">
-        <v>0.00682977337430521</v>
+        <v>0.007037414252790457</v>
       </c>
       <c r="I1436">
-        <v>-0.02459668308554397</v>
+        <v>0.3814309277418766</v>
       </c>
       <c r="J1436">
         <v>1.614917077138596</v>
       </c>
       <c r="K1436">
-        <v>2.17</v>
+        <v>2.47</v>
       </c>
       <c r="L1436">
-        <v>3.43</v>
+        <v>3.41</v>
       </c>
       <c r="M1436">
-        <v>2.13</v>
+        <v>2.24</v>
       </c>
       <c r="N1436">
-        <v>3.39</v>
+        <v>3.42</v>
       </c>
       <c r="O1436">
         <v>1</v>
@@ -73658,96 +73658,96 @@
     </row>
     <row r="1437" spans="1:16">
       <c r="A1437" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B1437" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C1437">
-        <v>0.06222467917078056</v>
+        <v>-0.07437005739075397</v>
       </c>
       <c r="D1437" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="E1437">
-        <v>-0.2452278381046384</v>
+        <v>-0.08437005739075421</v>
       </c>
       <c r="F1437">
         <v>-1</v>
       </c>
       <c r="G1437">
-        <v>0.006617775320829219</v>
+        <v>0.006934370057390755</v>
       </c>
       <c r="H1437">
-        <v>0.007145227838104638</v>
+        <v>0.006924370057390754</v>
       </c>
       <c r="I1437">
-        <v>0.307452517275419</v>
+        <v>0.01000000000000023</v>
       </c>
       <c r="J1437">
-        <v>1.546120434353405</v>
+        <v>1.614917077138596</v>
       </c>
       <c r="K1437">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="L1437">
-        <v>3.34</v>
+        <v>3.43</v>
       </c>
       <c r="M1437">
-        <v>2.39</v>
+        <v>2.17</v>
       </c>
       <c r="N1437">
-        <v>3.45</v>
+        <v>3.42</v>
       </c>
       <c r="O1437">
         <v>1</v>
       </c>
       <c r="P1437" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
     </row>
     <row r="1438" spans="1:16">
       <c r="A1438" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1438" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C1438">
-        <v>-0.418917472852911</v>
+        <v>0.06222467917078056</v>
       </c>
       <c r="D1438" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E1438">
-        <v>-0.04330977295162786</v>
+        <v>-0.2452278381046384</v>
       </c>
       <c r="F1438">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1438">
-        <v>0.007218917472852911</v>
+        <v>0.006617775320829219</v>
       </c>
       <c r="H1438">
-        <v>0.006883309772951628</v>
+        <v>0.007145227838104638</v>
       </c>
       <c r="I1438">
-        <v>0.3756076999012832</v>
+        <v>0.307452517275419</v>
       </c>
       <c r="J1438">
         <v>1.546120434353405</v>
       </c>
       <c r="K1438">
-        <v>2.47</v>
+        <v>2.12</v>
       </c>
       <c r="L1438">
-        <v>3.4</v>
+        <v>3.34</v>
       </c>
       <c r="M1438">
-        <v>2.24</v>
+        <v>2.39</v>
       </c>
       <c r="N1438">
-        <v>3.42</v>
+        <v>3.45</v>
       </c>
       <c r="O1438">
         <v>1</v>
@@ -73758,13 +73758,13 @@
     </row>
     <row r="1439" spans="1:16">
       <c r="A1439" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1439" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C1439">
-        <v>-0.4089174728529108</v>
+        <v>-0.418917472852911</v>
       </c>
       <c r="D1439" t="s">
         <v>354</v>
@@ -73776,13 +73776,13 @@
         <v>1</v>
       </c>
       <c r="G1439">
-        <v>0.007228917472852912</v>
+        <v>0.007218917472852911</v>
       </c>
       <c r="H1439">
         <v>0.006883309772951628</v>
       </c>
       <c r="I1439">
-        <v>0.3656076999012829</v>
+        <v>0.3756076999012832</v>
       </c>
       <c r="J1439">
         <v>1.546120434353405</v>
@@ -73791,7 +73791,7 @@
         <v>2.47</v>
       </c>
       <c r="L1439">
-        <v>3.41</v>
+        <v>3.4</v>
       </c>
       <c r="M1439">
         <v>2.24</v>
@@ -73808,46 +73808,46 @@
     </row>
     <row r="1440" spans="1:16">
       <c r="A1440" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1440" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C1440">
-        <v>0.04945745310957639</v>
+        <v>-0.4089174728529108</v>
       </c>
       <c r="D1440" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E1440">
-        <v>0.09676347482724745</v>
+        <v>-0.04330977295162786</v>
       </c>
       <c r="F1440">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1440">
-        <v>0.006790542546890423</v>
+        <v>0.007228917472852912</v>
       </c>
       <c r="H1440">
-        <v>0.006683236525172753</v>
+        <v>0.006883309772951628</v>
       </c>
       <c r="I1440">
-        <v>-0.04730602171767107</v>
+        <v>0.3656076999012829</v>
       </c>
       <c r="J1440">
         <v>1.546120434353405</v>
       </c>
       <c r="K1440">
-        <v>2.18</v>
+        <v>2.47</v>
       </c>
       <c r="L1440">
+        <v>3.41</v>
+      </c>
+      <c r="M1440">
+        <v>2.24</v>
+      </c>
+      <c r="N1440">
         <v>3.42</v>
-      </c>
-      <c r="M1440">
-        <v>2.13</v>
-      </c>
-      <c r="N1440">
-        <v>3.39</v>
       </c>
       <c r="O1440">
         <v>1</v>
@@ -73858,96 +73858,96 @@
     </row>
     <row r="1441" spans="1:16">
       <c r="A1441" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B1441" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C1441">
-        <v>0.1846987262292132</v>
+        <v>0.04945745310957639</v>
       </c>
       <c r="D1441" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="E1441">
-        <v>-0.10715568127933</v>
+        <v>0.06491865745311065</v>
       </c>
       <c r="F1441">
         <v>-1</v>
       </c>
       <c r="G1441">
-        <v>0.006495301273770787</v>
+        <v>0.006790542546890423</v>
       </c>
       <c r="H1441">
-        <v>0.007007155681279331</v>
+        <v>0.006775081342546889</v>
       </c>
       <c r="I1441">
-        <v>0.2918544075085432</v>
+        <v>-0.01546120434353426</v>
       </c>
       <c r="J1441">
-        <v>1.48834965743905</v>
+        <v>1.546120434353405</v>
       </c>
       <c r="K1441">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="L1441">
-        <v>3.34</v>
+        <v>3.42</v>
       </c>
       <c r="M1441">
-        <v>2.39</v>
+        <v>2.17</v>
       </c>
       <c r="N1441">
-        <v>3.45</v>
+        <v>3.42</v>
       </c>
       <c r="O1441">
         <v>1</v>
       </c>
       <c r="P1441" t="s">
-        <v>488</v>
+        <v>208</v>
       </c>
     </row>
     <row r="1442" spans="1:16">
       <c r="A1442" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1442" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C1442">
-        <v>-0.2762236538744545</v>
+        <v>0.1846987262292132</v>
       </c>
       <c r="D1442" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E1442">
-        <v>0.08609676733652716</v>
+        <v>-0.10715568127933</v>
       </c>
       <c r="F1442">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1442">
-        <v>0.007076223653874454</v>
+        <v>0.006495301273770787</v>
       </c>
       <c r="H1442">
-        <v>0.006753903232663473</v>
+        <v>0.007007155681279331</v>
       </c>
       <c r="I1442">
-        <v>0.3623204212109816</v>
+        <v>0.2918544075085432</v>
       </c>
       <c r="J1442">
         <v>1.48834965743905</v>
       </c>
       <c r="K1442">
-        <v>2.47</v>
+        <v>2.12</v>
       </c>
       <c r="L1442">
-        <v>3.4</v>
+        <v>3.34</v>
       </c>
       <c r="M1442">
-        <v>2.24</v>
+        <v>2.39</v>
       </c>
       <c r="N1442">
-        <v>3.42</v>
+        <v>3.45</v>
       </c>
       <c r="O1442">
         <v>1</v>
@@ -73958,13 +73958,13 @@
     </row>
     <row r="1443" spans="1:16">
       <c r="A1443" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1443" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C1443">
-        <v>-0.2662236538744542</v>
+        <v>-0.2762236538744545</v>
       </c>
       <c r="D1443" t="s">
         <v>354</v>
@@ -73976,13 +73976,13 @@
         <v>1</v>
       </c>
       <c r="G1443">
-        <v>0.007086223653874455</v>
+        <v>0.007076223653874454</v>
       </c>
       <c r="H1443">
         <v>0.006753903232663473</v>
       </c>
       <c r="I1443">
-        <v>0.3523204212109814</v>
+        <v>0.3623204212109816</v>
       </c>
       <c r="J1443">
         <v>1.48834965743905</v>
@@ -73991,7 +73991,7 @@
         <v>2.47</v>
       </c>
       <c r="L1443">
-        <v>3.41</v>
+        <v>3.4</v>
       </c>
       <c r="M1443">
         <v>2.24</v>
@@ -74008,46 +74008,46 @@
     </row>
     <row r="1444" spans="1:16">
       <c r="A1444" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1444" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C1444">
-        <v>0.17539774678287</v>
+        <v>-0.2662236538744542</v>
       </c>
       <c r="D1444" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E1444">
-        <v>0.2198152296548233</v>
+        <v>0.08609676733652716</v>
       </c>
       <c r="F1444">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1444">
-        <v>0.00666460225321713</v>
+        <v>0.007086223653874455</v>
       </c>
       <c r="H1444">
-        <v>0.006560184770345178</v>
+        <v>0.006753903232663473</v>
       </c>
       <c r="I1444">
-        <v>-0.04441748287195324</v>
+        <v>0.3523204212109814</v>
       </c>
       <c r="J1444">
         <v>1.48834965743905</v>
       </c>
       <c r="K1444">
-        <v>2.18</v>
+        <v>2.47</v>
       </c>
       <c r="L1444">
+        <v>3.41</v>
+      </c>
+      <c r="M1444">
+        <v>2.24</v>
+      </c>
+      <c r="N1444">
         <v>3.42</v>
-      </c>
-      <c r="M1444">
-        <v>2.13</v>
-      </c>
-      <c r="N1444">
-        <v>3.39</v>
       </c>
       <c r="O1444">
         <v>1</v>
@@ -74058,63 +74058,63 @@
     </row>
     <row r="1445" spans="1:16">
       <c r="A1445" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B1445" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C1445">
-        <v>0.3249624494021601</v>
+        <v>0.17539774678287</v>
       </c>
       <c r="D1445" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="E1445">
-        <v>0.05097181795809602</v>
+        <v>0.1902812433572612</v>
       </c>
       <c r="F1445">
         <v>-1</v>
       </c>
       <c r="G1445">
-        <v>0.00635503755059784</v>
+        <v>0.00666460225321713</v>
       </c>
       <c r="H1445">
-        <v>0.006849028182041904</v>
+        <v>0.006649718756642739</v>
       </c>
       <c r="I1445">
-        <v>0.2739906314440641</v>
+        <v>-0.01488349657439114</v>
       </c>
       <c r="J1445">
-        <v>1.422187523866906</v>
+        <v>1.48834965743905</v>
       </c>
       <c r="K1445">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="L1445">
-        <v>3.34</v>
+        <v>3.42</v>
       </c>
       <c r="M1445">
-        <v>2.39</v>
+        <v>2.17</v>
       </c>
       <c r="N1445">
-        <v>3.45</v>
+        <v>3.42</v>
       </c>
       <c r="O1445">
         <v>1</v>
       </c>
       <c r="P1445" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="1446" spans="1:16">
       <c r="A1446" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1446" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C1446">
-        <v>0.3094155684354338</v>
+        <v>0.3249624494021601</v>
       </c>
       <c r="D1446" t="s">
         <v>353</v>
@@ -74126,22 +74126,22 @@
         <v>-1</v>
       </c>
       <c r="G1446">
-        <v>0.007050584431564567</v>
+        <v>0.00635503755059784</v>
       </c>
       <c r="H1446">
         <v>0.006849028182041904</v>
       </c>
       <c r="I1446">
-        <v>0.2584437504773378</v>
+        <v>0.2739906314440641</v>
       </c>
       <c r="J1446">
         <v>1.422187523866906</v>
       </c>
       <c r="K1446">
-        <v>2.37</v>
+        <v>2.12</v>
       </c>
       <c r="L1446">
-        <v>3.68</v>
+        <v>3.34</v>
       </c>
       <c r="M1446">
         <v>2.39</v>
@@ -74158,46 +74158,46 @@
     </row>
     <row r="1447" spans="1:16">
       <c r="A1447" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1447" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="C1447">
-        <v>-0.1128031839512569</v>
+        <v>0.3094155684354338</v>
       </c>
       <c r="D1447" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E1447">
-        <v>0.2342999465381315</v>
+        <v>0.05097181795809602</v>
       </c>
       <c r="F1447">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1447">
-        <v>0.006912803183951256</v>
+        <v>0.007050584431564567</v>
       </c>
       <c r="H1447">
-        <v>0.006605700053461869</v>
+        <v>0.006849028182041904</v>
       </c>
       <c r="I1447">
-        <v>0.3471031304893883</v>
+        <v>0.2584437504773378</v>
       </c>
       <c r="J1447">
         <v>1.422187523866906</v>
       </c>
       <c r="K1447">
-        <v>2.47</v>
+        <v>2.37</v>
       </c>
       <c r="L1447">
-        <v>3.4</v>
+        <v>3.68</v>
       </c>
       <c r="M1447">
-        <v>2.24</v>
+        <v>2.39</v>
       </c>
       <c r="N1447">
-        <v>3.42</v>
+        <v>3.45</v>
       </c>
       <c r="O1447">
         <v>1</v>
@@ -74208,13 +74208,13 @@
     </row>
     <row r="1448" spans="1:16">
       <c r="A1448" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1448" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C1448">
-        <v>-0.1028031839512566</v>
+        <v>-0.1128031839512569</v>
       </c>
       <c r="D1448" t="s">
         <v>354</v>
@@ -74226,13 +74226,13 @@
         <v>1</v>
       </c>
       <c r="G1448">
-        <v>0.006922803183951257</v>
+        <v>0.006912803183951256</v>
       </c>
       <c r="H1448">
         <v>0.006605700053461869</v>
       </c>
       <c r="I1448">
-        <v>0.3371031304893881</v>
+        <v>0.3471031304893883</v>
       </c>
       <c r="J1448">
         <v>1.422187523866906</v>
@@ -74241,7 +74241,7 @@
         <v>2.47</v>
       </c>
       <c r="L1448">
-        <v>3.41</v>
+        <v>3.4</v>
       </c>
       <c r="M1448">
         <v>2.24</v>
@@ -74258,46 +74258,46 @@
     </row>
     <row r="1449" spans="1:16">
       <c r="A1449" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1449" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C1449">
-        <v>0.3196311979701458</v>
+        <v>-0.1028031839512566</v>
       </c>
       <c r="D1449" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E1449">
-        <v>0.3607405741634917</v>
+        <v>0.2342999465381315</v>
       </c>
       <c r="F1449">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1449">
-        <v>0.006520368802029853</v>
+        <v>0.006922803183951257</v>
       </c>
       <c r="H1449">
-        <v>0.006419259425836508</v>
+        <v>0.006605700053461869</v>
       </c>
       <c r="I1449">
-        <v>-0.04110937619334587</v>
+        <v>0.3371031304893881</v>
       </c>
       <c r="J1449">
         <v>1.422187523866906</v>
       </c>
       <c r="K1449">
-        <v>2.18</v>
+        <v>2.47</v>
       </c>
       <c r="L1449">
+        <v>3.41</v>
+      </c>
+      <c r="M1449">
+        <v>2.24</v>
+      </c>
+      <c r="N1449">
         <v>3.42</v>
-      </c>
-      <c r="M1449">
-        <v>2.13</v>
-      </c>
-      <c r="N1449">
-        <v>3.39</v>
       </c>
       <c r="O1449">
         <v>1</v>
@@ -74308,63 +74308,63 @@
     </row>
     <row r="1450" spans="1:16">
       <c r="A1450" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B1450" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C1450">
-        <v>0.4152357957730102</v>
+        <v>0.3196311979701458</v>
       </c>
       <c r="D1450" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="E1450">
-        <v>0.1527422414610826</v>
+        <v>0.333853073208815</v>
       </c>
       <c r="F1450">
         <v>-1</v>
       </c>
       <c r="G1450">
-        <v>0.006264764204226989</v>
+        <v>0.006520368802029853</v>
       </c>
       <c r="H1450">
-        <v>0.006747257758538919</v>
+        <v>0.006506146926791185</v>
       </c>
       <c r="I1450">
-        <v>0.2624935543119276</v>
+        <v>-0.01422187523866913</v>
       </c>
       <c r="J1450">
-        <v>1.379605756710844</v>
+        <v>1.422187523866906</v>
       </c>
       <c r="K1450">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="L1450">
-        <v>3.34</v>
+        <v>3.42</v>
       </c>
       <c r="M1450">
-        <v>2.39</v>
+        <v>2.17</v>
       </c>
       <c r="N1450">
-        <v>3.45</v>
+        <v>3.42</v>
       </c>
       <c r="O1450">
         <v>1</v>
       </c>
       <c r="P1450" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="1451" spans="1:16">
       <c r="A1451" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1451" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C1451">
-        <v>0.4103343565952993</v>
+        <v>0.4152357957730102</v>
       </c>
       <c r="D1451" t="s">
         <v>353</v>
@@ -74376,22 +74376,22 @@
         <v>-1</v>
       </c>
       <c r="G1451">
-        <v>0.006949665643404702</v>
+        <v>0.006264764204226989</v>
       </c>
       <c r="H1451">
         <v>0.006747257758538919</v>
       </c>
       <c r="I1451">
-        <v>0.2575921151342166</v>
+        <v>0.2624935543119276</v>
       </c>
       <c r="J1451">
         <v>1.379605756710844</v>
       </c>
       <c r="K1451">
-        <v>2.37</v>
+        <v>2.12</v>
       </c>
       <c r="L1451">
-        <v>3.68</v>
+        <v>3.34</v>
       </c>
       <c r="M1451">
         <v>2.39</v>
@@ -74408,46 +74408,46 @@
     </row>
     <row r="1452" spans="1:16">
       <c r="A1452" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1452" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="C1452">
-        <v>-0.007626219075785645</v>
+        <v>0.4103343565952993</v>
       </c>
       <c r="D1452" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E1452">
-        <v>0.3296831049677085</v>
+        <v>0.1527422414610826</v>
       </c>
       <c r="F1452">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1452">
-        <v>0.006807626219075786</v>
+        <v>0.006949665643404702</v>
       </c>
       <c r="H1452">
-        <v>0.006510316895032292</v>
+        <v>0.006747257758538919</v>
       </c>
       <c r="I1452">
-        <v>0.3373093240434941</v>
+        <v>0.2575921151342166</v>
       </c>
       <c r="J1452">
         <v>1.379605756710844</v>
       </c>
       <c r="K1452">
-        <v>2.47</v>
+        <v>2.37</v>
       </c>
       <c r="L1452">
-        <v>3.4</v>
+        <v>3.68</v>
       </c>
       <c r="M1452">
-        <v>2.24</v>
+        <v>2.39</v>
       </c>
       <c r="N1452">
-        <v>3.42</v>
+        <v>3.45</v>
       </c>
       <c r="O1452">
         <v>1</v>
@@ -74458,13 +74458,13 @@
     </row>
     <row r="1453" spans="1:16">
       <c r="A1453" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1453" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C1453">
-        <v>0.002373780924214586</v>
+        <v>-0.007626219075785645</v>
       </c>
       <c r="D1453" t="s">
         <v>354</v>
@@ -74476,13 +74476,13 @@
         <v>1</v>
       </c>
       <c r="G1453">
-        <v>0.006817626219075786</v>
+        <v>0.006807626219075786</v>
       </c>
       <c r="H1453">
         <v>0.006510316895032292</v>
       </c>
       <c r="I1453">
-        <v>0.3273093240434939</v>
+        <v>0.3373093240434941</v>
       </c>
       <c r="J1453">
         <v>1.379605756710844</v>
@@ -74491,7 +74491,7 @@
         <v>2.47</v>
       </c>
       <c r="L1453">
-        <v>3.41</v>
+        <v>3.4</v>
       </c>
       <c r="M1453">
         <v>2.24</v>
@@ -74508,46 +74508,46 @@
     </row>
     <row r="1454" spans="1:16">
       <c r="A1454" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1454" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C1454">
-        <v>0.4124594503703594</v>
+        <v>0.002373780924214586</v>
       </c>
       <c r="D1454" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E1454">
-        <v>0.4514397382059023</v>
+        <v>0.3296831049677085</v>
       </c>
       <c r="F1454">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1454">
-        <v>0.00642754054962964</v>
+        <v>0.006817626219075786</v>
       </c>
       <c r="H1454">
-        <v>0.006328560261794098</v>
+        <v>0.006510316895032292</v>
       </c>
       <c r="I1454">
-        <v>-0.03898028783554297</v>
+        <v>0.3273093240434939</v>
       </c>
       <c r="J1454">
         <v>1.379605756710844</v>
       </c>
       <c r="K1454">
-        <v>2.18</v>
+        <v>2.47</v>
       </c>
       <c r="L1454">
+        <v>3.41</v>
+      </c>
+      <c r="M1454">
+        <v>2.24</v>
+      </c>
+      <c r="N1454">
         <v>3.42</v>
-      </c>
-      <c r="M1454">
-        <v>2.13</v>
-      </c>
-      <c r="N1454">
-        <v>3.39</v>
       </c>
       <c r="O1454">
         <v>1</v>
@@ -74558,63 +74558,63 @@
     </row>
     <row r="1455" spans="1:16">
       <c r="A1455" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B1455" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C1455">
-        <v>0.4887758368955271</v>
+        <v>0.4124594503703594</v>
       </c>
       <c r="D1455" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="E1455">
-        <v>0.2356482312171275</v>
+        <v>0.4262555079374684</v>
       </c>
       <c r="F1455">
         <v>-1</v>
       </c>
       <c r="G1455">
-        <v>0.006191224163104472</v>
+        <v>0.00642754054962964</v>
       </c>
       <c r="H1455">
-        <v>0.006664351768782873</v>
+        <v>0.006413744492062531</v>
       </c>
       <c r="I1455">
-        <v>0.2531276056783995</v>
+        <v>-0.013796057567109</v>
       </c>
       <c r="J1455">
-        <v>1.344917058068148</v>
+        <v>1.379605756710844</v>
       </c>
       <c r="K1455">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="L1455">
-        <v>3.34</v>
+        <v>3.42</v>
       </c>
       <c r="M1455">
-        <v>2.39</v>
+        <v>2.17</v>
       </c>
       <c r="N1455">
-        <v>3.45</v>
+        <v>3.42</v>
       </c>
       <c r="O1455">
         <v>1</v>
       </c>
       <c r="P1455" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="1456" spans="1:16">
       <c r="A1456" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1456" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C1456">
-        <v>0.4925465723784903</v>
+        <v>0.4887758368955271</v>
       </c>
       <c r="D1456" t="s">
         <v>353</v>
@@ -74626,22 +74626,22 @@
         <v>-1</v>
       </c>
       <c r="G1456">
-        <v>0.00686745342762151</v>
+        <v>0.006191224163104472</v>
       </c>
       <c r="H1456">
         <v>0.006664351768782873</v>
       </c>
       <c r="I1456">
-        <v>0.2568983411613628</v>
+        <v>0.2531276056783995</v>
       </c>
       <c r="J1456">
         <v>1.344917058068148</v>
       </c>
       <c r="K1456">
-        <v>2.37</v>
+        <v>2.12</v>
       </c>
       <c r="L1456">
-        <v>3.68</v>
+        <v>3.34</v>
       </c>
       <c r="M1456">
         <v>2.39</v>
@@ -74658,46 +74658,46 @@
     </row>
     <row r="1457" spans="1:16">
       <c r="A1457" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1457" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="C1457">
-        <v>0.07805486657167515</v>
+        <v>0.4925465723784903</v>
       </c>
       <c r="D1457" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E1457">
-        <v>0.407385789927349</v>
+        <v>0.2356482312171275</v>
       </c>
       <c r="F1457">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1457">
-        <v>0.006721945133428324</v>
+        <v>0.00686745342762151</v>
       </c>
       <c r="H1457">
-        <v>0.006432614210072651</v>
+        <v>0.006664351768782873</v>
       </c>
       <c r="I1457">
-        <v>0.3293309233556738</v>
+        <v>0.2568983411613628</v>
       </c>
       <c r="J1457">
         <v>1.344917058068148</v>
       </c>
       <c r="K1457">
-        <v>2.47</v>
+        <v>2.37</v>
       </c>
       <c r="L1457">
-        <v>3.4</v>
+        <v>3.68</v>
       </c>
       <c r="M1457">
-        <v>2.24</v>
+        <v>2.39</v>
       </c>
       <c r="N1457">
-        <v>3.42</v>
+        <v>3.45</v>
       </c>
       <c r="O1457">
         <v>1</v>
@@ -74708,13 +74708,13 @@
     </row>
     <row r="1458" spans="1:16">
       <c r="A1458" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1458" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C1458">
-        <v>0.08805486657167538</v>
+        <v>0.07805486657167515</v>
       </c>
       <c r="D1458" t="s">
         <v>354</v>
@@ -74726,13 +74726,13 @@
         <v>1</v>
       </c>
       <c r="G1458">
-        <v>0.006731945133428325</v>
+        <v>0.006721945133428324</v>
       </c>
       <c r="H1458">
         <v>0.006432614210072651</v>
       </c>
       <c r="I1458">
-        <v>0.3193309233556736</v>
+        <v>0.3293309233556738</v>
       </c>
       <c r="J1458">
         <v>1.344917058068148</v>
@@ -74741,7 +74741,7 @@
         <v>2.47</v>
       </c>
       <c r="L1458">
-        <v>3.41</v>
+        <v>3.4</v>
       </c>
       <c r="M1458">
         <v>2.24</v>
@@ -74758,46 +74758,46 @@
     </row>
     <row r="1459" spans="1:16">
       <c r="A1459" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1459" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C1459">
-        <v>0.4880808134114383</v>
+        <v>0.08805486657167538</v>
       </c>
       <c r="D1459" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E1459">
-        <v>0.5253266663148461</v>
+        <v>0.407385789927349</v>
       </c>
       <c r="F1459">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1459">
-        <v>0.006351919186588562</v>
+        <v>0.006731945133428325</v>
       </c>
       <c r="H1459">
-        <v>0.006254673333685155</v>
+        <v>0.006432614210072651</v>
       </c>
       <c r="I1459">
-        <v>-0.03724585290340787</v>
+        <v>0.3193309233556736</v>
       </c>
       <c r="J1459">
         <v>1.344917058068148</v>
       </c>
       <c r="K1459">
-        <v>2.18</v>
+        <v>2.47</v>
       </c>
       <c r="L1459">
+        <v>3.41</v>
+      </c>
+      <c r="M1459">
+        <v>2.24</v>
+      </c>
+      <c r="N1459">
         <v>3.42</v>
-      </c>
-      <c r="M1459">
-        <v>2.13</v>
-      </c>
-      <c r="N1459">
-        <v>3.39</v>
       </c>
       <c r="O1459">
         <v>1</v>
@@ -74808,96 +74808,96 @@
     </row>
     <row r="1460" spans="1:16">
       <c r="A1460" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B1460" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C1460">
-        <v>0.5298189497082526</v>
+        <v>0.4880808134114383</v>
       </c>
       <c r="D1460" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="E1460">
-        <v>0.2819185329258134</v>
+        <v>0.5015299839921199</v>
       </c>
       <c r="F1460">
         <v>-1</v>
       </c>
       <c r="G1460">
-        <v>0.006150181050291748</v>
+        <v>0.006351919186588562</v>
       </c>
       <c r="H1460">
-        <v>0.006618081467074188</v>
+        <v>0.00633847001600788</v>
       </c>
       <c r="I1460">
-        <v>0.2479004167824392</v>
+        <v>-0.01344917058068162</v>
       </c>
       <c r="J1460">
-        <v>1.32555709919422</v>
+        <v>1.344917058068148</v>
       </c>
       <c r="K1460">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="L1460">
-        <v>3.34</v>
+        <v>3.42</v>
       </c>
       <c r="M1460">
-        <v>2.39</v>
+        <v>2.17</v>
       </c>
       <c r="N1460">
-        <v>3.45</v>
+        <v>3.42</v>
       </c>
       <c r="O1460">
         <v>1</v>
       </c>
       <c r="P1460" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="1461" spans="1:16">
       <c r="A1461" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1461" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C1461">
-        <v>0.1258739649902756</v>
+        <v>0.5298189497082526</v>
       </c>
       <c r="D1461" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E1461">
-        <v>0.4507520978049464</v>
+        <v>0.2819185329258134</v>
       </c>
       <c r="F1461">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1461">
-        <v>0.006674126035009724</v>
+        <v>0.006150181050291748</v>
       </c>
       <c r="H1461">
-        <v>0.006389247902195054</v>
+        <v>0.006618081467074188</v>
       </c>
       <c r="I1461">
-        <v>0.3248781328146708</v>
+        <v>0.2479004167824392</v>
       </c>
       <c r="J1461">
         <v>1.32555709919422</v>
       </c>
       <c r="K1461">
-        <v>2.47</v>
+        <v>2.12</v>
       </c>
       <c r="L1461">
-        <v>3.4</v>
+        <v>3.34</v>
       </c>
       <c r="M1461">
-        <v>2.24</v>
+        <v>2.39</v>
       </c>
       <c r="N1461">
-        <v>3.42</v>
+        <v>3.45</v>
       </c>
       <c r="O1461">
         <v>1</v>
@@ -74908,46 +74908,46 @@
     </row>
     <row r="1462" spans="1:16">
       <c r="A1462" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1462" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="C1462">
-        <v>0.1358739649902758</v>
+        <v>0.5384296749096982</v>
       </c>
       <c r="D1462" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E1462">
-        <v>0.4507520978049464</v>
+        <v>0.2819185329258134</v>
       </c>
       <c r="F1462">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1462">
-        <v>0.006684126035009725</v>
+        <v>0.006821570325090303</v>
       </c>
       <c r="H1462">
-        <v>0.006389247902195054</v>
+        <v>0.006618081467074188</v>
       </c>
       <c r="I1462">
-        <v>0.3148781328146706</v>
+        <v>0.2565111419838848</v>
       </c>
       <c r="J1462">
         <v>1.32555709919422</v>
       </c>
       <c r="K1462">
-        <v>2.47</v>
+        <v>2.37</v>
       </c>
       <c r="L1462">
-        <v>3.41</v>
+        <v>3.68</v>
       </c>
       <c r="M1462">
-        <v>2.24</v>
+        <v>2.39</v>
       </c>
       <c r="N1462">
-        <v>3.42</v>
+        <v>3.45</v>
       </c>
       <c r="O1462">
         <v>1</v>
@@ -74958,46 +74958,46 @@
     </row>
     <row r="1463" spans="1:16">
       <c r="A1463" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1463" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C1463">
-        <v>0.5302855237565995</v>
+        <v>0.1258739649902756</v>
       </c>
       <c r="D1463" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E1463">
-        <v>0.5665633787163111</v>
+        <v>0.4507520978049464</v>
       </c>
       <c r="F1463">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1463">
-        <v>0.0063097144762434</v>
+        <v>0.006674126035009724</v>
       </c>
       <c r="H1463">
-        <v>0.00621343662128369</v>
+        <v>0.006389247902195054</v>
       </c>
       <c r="I1463">
-        <v>-0.03627785495971159</v>
+        <v>0.3248781328146708</v>
       </c>
       <c r="J1463">
         <v>1.32555709919422</v>
       </c>
       <c r="K1463">
-        <v>2.18</v>
+        <v>2.47</v>
       </c>
       <c r="L1463">
+        <v>3.4</v>
+      </c>
+      <c r="M1463">
+        <v>2.24</v>
+      </c>
+      <c r="N1463">
         <v>3.42</v>
-      </c>
-      <c r="M1463">
-        <v>2.13</v>
-      </c>
-      <c r="N1463">
-        <v>3.39</v>
       </c>
       <c r="O1463">
         <v>1</v>
@@ -75008,93 +75008,93 @@
     </row>
     <row r="1464" spans="1:16">
       <c r="A1464" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B1464" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C1464">
-        <v>0.521044101995368</v>
+        <v>0.1358739649902758</v>
       </c>
       <c r="D1464" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E1464">
-        <v>0.2720261338532692</v>
+        <v>0.4507520978049464</v>
       </c>
       <c r="F1464">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1464">
-        <v>0.006158955898004631</v>
+        <v>0.006684126035009725</v>
       </c>
       <c r="H1464">
-        <v>0.006627973866146731</v>
+        <v>0.006389247902195054</v>
       </c>
       <c r="I1464">
-        <v>0.2490179681420988</v>
+        <v>0.3148781328146706</v>
       </c>
       <c r="J1464">
-        <v>1.329696178304071</v>
+        <v>1.32555709919422</v>
       </c>
       <c r="K1464">
-        <v>2.12</v>
+        <v>2.47</v>
       </c>
       <c r="L1464">
-        <v>3.34</v>
+        <v>3.41</v>
       </c>
       <c r="M1464">
-        <v>2.39</v>
+        <v>2.24</v>
       </c>
       <c r="N1464">
-        <v>3.45</v>
+        <v>3.42</v>
       </c>
       <c r="O1464">
         <v>1</v>
       </c>
       <c r="P1464" t="s">
-        <v>228</v>
+        <v>492</v>
       </c>
     </row>
     <row r="1465" spans="1:16">
       <c r="A1465" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B1465" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C1465">
-        <v>0.1156504395889431</v>
+        <v>0.5302855237565995</v>
       </c>
       <c r="D1465" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E1465">
-        <v>0.4414805605988796</v>
+        <v>0.5435410947485422</v>
       </c>
       <c r="F1465">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1465">
-        <v>0.006684349560411057</v>
+        <v>0.0063097144762434</v>
       </c>
       <c r="H1465">
-        <v>0.006398519439401121</v>
+        <v>0.006296458905251458</v>
       </c>
       <c r="I1465">
-        <v>0.3258301210099366</v>
+        <v>-0.01325557099194263</v>
       </c>
       <c r="J1465">
-        <v>1.329696178304071</v>
+        <v>1.32555709919422</v>
       </c>
       <c r="K1465">
-        <v>2.47</v>
+        <v>2.18</v>
       </c>
       <c r="L1465">
-        <v>3.4</v>
+        <v>3.42</v>
       </c>
       <c r="M1465">
-        <v>2.24</v>
+        <v>2.17</v>
       </c>
       <c r="N1465">
         <v>3.42</v>
@@ -75103,195 +75103,195 @@
         <v>1</v>
       </c>
       <c r="P1465" t="s">
-        <v>228</v>
+        <v>492</v>
       </c>
     </row>
     <row r="1466" spans="1:16">
       <c r="A1466" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B1466" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="C1466">
-        <v>0.1256504395889433</v>
+        <v>0.521044101995368</v>
       </c>
       <c r="D1466" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E1466">
-        <v>0.4414805605988796</v>
+        <v>0.2720261338532692</v>
       </c>
       <c r="F1466">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1466">
-        <v>0.006694349560411057</v>
+        <v>0.006158955898004631</v>
       </c>
       <c r="H1466">
-        <v>0.006398519439401121</v>
+        <v>0.006627973866146731</v>
       </c>
       <c r="I1466">
-        <v>0.3158301210099363</v>
+        <v>0.2490179681420988</v>
       </c>
       <c r="J1466">
         <v>1.329696178304071</v>
       </c>
       <c r="K1466">
-        <v>2.47</v>
+        <v>2.12</v>
       </c>
       <c r="L1466">
-        <v>3.41</v>
+        <v>3.34</v>
       </c>
       <c r="M1466">
-        <v>2.24</v>
+        <v>2.39</v>
       </c>
       <c r="N1466">
-        <v>3.42</v>
+        <v>3.45</v>
       </c>
       <c r="O1466">
         <v>1</v>
       </c>
       <c r="P1466" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="1467" spans="1:16">
       <c r="A1467" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B1467" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C1467">
-        <v>0.5212623312971241</v>
+        <v>0.5286200574193507</v>
       </c>
       <c r="D1467" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E1467">
-        <v>0.557747140212328</v>
+        <v>0.2720261338532692</v>
       </c>
       <c r="F1467">
         <v>-1</v>
       </c>
       <c r="G1467">
-        <v>0.006318737668702876</v>
+        <v>0.00683137994258065</v>
       </c>
       <c r="H1467">
-        <v>0.006222252859787673</v>
+        <v>0.006627973866146731</v>
       </c>
       <c r="I1467">
-        <v>-0.03648480891520389</v>
+        <v>0.2565939235660815</v>
       </c>
       <c r="J1467">
         <v>1.329696178304071</v>
       </c>
       <c r="K1467">
-        <v>2.18</v>
+        <v>2.37</v>
       </c>
       <c r="L1467">
-        <v>3.42</v>
+        <v>3.68</v>
       </c>
       <c r="M1467">
-        <v>2.13</v>
+        <v>2.39</v>
       </c>
       <c r="N1467">
-        <v>3.39</v>
+        <v>3.45</v>
       </c>
       <c r="O1467">
         <v>1</v>
       </c>
       <c r="P1467" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="1468" spans="1:16">
       <c r="A1468" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1468" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C1468">
-        <v>0.5673122132241386</v>
+        <v>0.1156504395889431</v>
       </c>
       <c r="D1468" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E1468">
-        <v>0.3241868818894775</v>
+        <v>0.4414805605988796</v>
       </c>
       <c r="F1468">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1468">
-        <v>0.006112687786775862</v>
+        <v>0.006684349560411057</v>
       </c>
       <c r="H1468">
-        <v>0.006575813118110523</v>
+        <v>0.006398519439401121</v>
       </c>
       <c r="I1468">
-        <v>0.2431253313346611</v>
+        <v>0.3258301210099366</v>
       </c>
       <c r="J1468">
-        <v>1.307871597535784</v>
+        <v>1.329696178304071</v>
       </c>
       <c r="K1468">
-        <v>2.12</v>
+        <v>2.47</v>
       </c>
       <c r="L1468">
-        <v>3.34</v>
+        <v>3.4</v>
       </c>
       <c r="M1468">
-        <v>2.39</v>
+        <v>2.24</v>
       </c>
       <c r="N1468">
-        <v>3.45</v>
+        <v>3.42</v>
       </c>
       <c r="O1468">
         <v>1</v>
       </c>
       <c r="P1468" t="s">
-        <v>493</v>
+        <v>227</v>
       </c>
     </row>
     <row r="1469" spans="1:16">
       <c r="A1469" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B1469" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C1469">
-        <v>0.1695571540866143</v>
+        <v>0.1256504395889433</v>
       </c>
       <c r="D1469" t="s">
         <v>354</v>
       </c>
       <c r="E1469">
-        <v>0.4903676215198445</v>
+        <v>0.4414805605988796</v>
       </c>
       <c r="F1469">
         <v>1</v>
       </c>
       <c r="G1469">
-        <v>0.006630442845913386</v>
+        <v>0.006694349560411057</v>
       </c>
       <c r="H1469">
-        <v>0.006349632378480155</v>
+        <v>0.006398519439401121</v>
       </c>
       <c r="I1469">
-        <v>0.3208104674332302</v>
+        <v>0.3158301210099363</v>
       </c>
       <c r="J1469">
-        <v>1.307871597535784</v>
+        <v>1.329696178304071</v>
       </c>
       <c r="K1469">
         <v>2.47</v>
       </c>
       <c r="L1469">
-        <v>3.4</v>
+        <v>3.41</v>
       </c>
       <c r="M1469">
         <v>2.24</v>
@@ -75303,48 +75303,48 @@
         <v>1</v>
       </c>
       <c r="P1469" t="s">
-        <v>493</v>
+        <v>227</v>
       </c>
     </row>
     <row r="1470" spans="1:16">
       <c r="A1470" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B1470" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C1470">
-        <v>0.1795571540866145</v>
+        <v>0.5212623312971241</v>
       </c>
       <c r="D1470" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E1470">
-        <v>0.4903676215198445</v>
+        <v>0.5345592930801648</v>
       </c>
       <c r="F1470">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1470">
-        <v>0.006640442845913386</v>
+        <v>0.006318737668702876</v>
       </c>
       <c r="H1470">
-        <v>0.006349632378480155</v>
+        <v>0.006305440706919836</v>
       </c>
       <c r="I1470">
-        <v>0.3108104674332299</v>
+        <v>-0.01329696178304074</v>
       </c>
       <c r="J1470">
-        <v>1.307871597535784</v>
+        <v>1.329696178304071</v>
       </c>
       <c r="K1470">
-        <v>2.47</v>
+        <v>2.18</v>
       </c>
       <c r="L1470">
-        <v>3.41</v>
+        <v>3.42</v>
       </c>
       <c r="M1470">
-        <v>2.24</v>
+        <v>2.17</v>
       </c>
       <c r="N1470">
         <v>3.42</v>
@@ -75353,51 +75353,51 @@
         <v>1</v>
       </c>
       <c r="P1470" t="s">
-        <v>493</v>
+        <v>227</v>
       </c>
     </row>
     <row r="1471" spans="1:16">
       <c r="A1471" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B1471" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C1471">
-        <v>0.5688399173719918</v>
+        <v>0.5673122132241386</v>
       </c>
       <c r="D1471" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E1471">
-        <v>0.6042334972487815</v>
+        <v>0.3241868818894775</v>
       </c>
       <c r="F1471">
         <v>-1</v>
       </c>
       <c r="G1471">
-        <v>0.006271160082628007</v>
+        <v>0.006112687786775862</v>
       </c>
       <c r="H1471">
-        <v>0.006175766502751219</v>
+        <v>0.006575813118110523</v>
       </c>
       <c r="I1471">
-        <v>-0.0353935798767897</v>
+        <v>0.2431253313346611</v>
       </c>
       <c r="J1471">
         <v>1.307871597535784</v>
       </c>
       <c r="K1471">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="L1471">
-        <v>3.42</v>
+        <v>3.34</v>
       </c>
       <c r="M1471">
-        <v>2.13</v>
+        <v>2.39</v>
       </c>
       <c r="N1471">
-        <v>3.39</v>
+        <v>3.45</v>
       </c>
       <c r="O1471">
         <v>1</v>
@@ -75408,90 +75408,90 @@
     </row>
     <row r="1472" spans="1:16">
       <c r="A1472" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1472" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C1472">
-        <v>0.6676280159287886</v>
+        <v>0.1695571540866143</v>
       </c>
       <c r="D1472" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E1472">
-        <v>0.4372787538065124</v>
+        <v>0.4903676215198445</v>
       </c>
       <c r="F1472">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1472">
-        <v>0.006012371984071212</v>
+        <v>0.006630442845913386</v>
       </c>
       <c r="H1472">
-        <v>0.006462721246193488</v>
+        <v>0.006349632378480155</v>
       </c>
       <c r="I1472">
-        <v>0.2303492621222762</v>
+        <v>0.3208104674332302</v>
       </c>
       <c r="J1472">
-        <v>1.260552822675099</v>
+        <v>1.307871597535784</v>
       </c>
       <c r="K1472">
-        <v>2.12</v>
+        <v>2.47</v>
       </c>
       <c r="L1472">
-        <v>3.34</v>
+        <v>3.4</v>
       </c>
       <c r="M1472">
-        <v>2.39</v>
+        <v>2.24</v>
       </c>
       <c r="N1472">
-        <v>3.45</v>
+        <v>3.42</v>
       </c>
       <c r="O1472">
         <v>1</v>
       </c>
       <c r="P1472" t="s">
-        <v>352</v>
+        <v>493</v>
       </c>
     </row>
     <row r="1473" spans="1:16">
       <c r="A1473" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1473" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C1473">
-        <v>0.2864345279925038</v>
+        <v>0.1795571540866145</v>
       </c>
       <c r="D1473" t="s">
         <v>354</v>
       </c>
       <c r="E1473">
-        <v>0.5963616772077769</v>
+        <v>0.4903676215198445</v>
       </c>
       <c r="F1473">
         <v>1</v>
       </c>
       <c r="G1473">
-        <v>0.006513565472007496</v>
+        <v>0.006640442845913386</v>
       </c>
       <c r="H1473">
-        <v>0.006243638322792223</v>
+        <v>0.006349632378480155</v>
       </c>
       <c r="I1473">
-        <v>0.3099271492152731</v>
+        <v>0.3108104674332299</v>
       </c>
       <c r="J1473">
-        <v>1.260552822675099</v>
+        <v>1.307871597535784</v>
       </c>
       <c r="K1473">
         <v>2.47</v>
       </c>
       <c r="L1473">
-        <v>3.4</v>
+        <v>3.41</v>
       </c>
       <c r="M1473">
         <v>2.24</v>
@@ -75503,48 +75503,48 @@
         <v>1</v>
       </c>
       <c r="P1473" t="s">
-        <v>352</v>
+        <v>493</v>
       </c>
     </row>
     <row r="1474" spans="1:16">
       <c r="A1474" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B1474" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C1474">
-        <v>0.296434527992504</v>
+        <v>0.5688399173719918</v>
       </c>
       <c r="D1474" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E1474">
-        <v>0.5963616772077769</v>
+        <v>0.5819186333473496</v>
       </c>
       <c r="F1474">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1474">
-        <v>0.006523565472007496</v>
+        <v>0.006271160082628007</v>
       </c>
       <c r="H1474">
-        <v>0.006243638322792223</v>
+        <v>0.00625808136665265</v>
       </c>
       <c r="I1474">
-        <v>0.2999271492152729</v>
+        <v>-0.01307871597535781</v>
       </c>
       <c r="J1474">
-        <v>1.260552822675099</v>
+        <v>1.307871597535784</v>
       </c>
       <c r="K1474">
-        <v>2.47</v>
+        <v>2.18</v>
       </c>
       <c r="L1474">
-        <v>3.41</v>
+        <v>3.42</v>
       </c>
       <c r="M1474">
-        <v>2.24</v>
+        <v>2.17</v>
       </c>
       <c r="N1474">
         <v>3.42</v>
@@ -75553,56 +75553,206 @@
         <v>1</v>
       </c>
       <c r="P1474" t="s">
-        <v>352</v>
+        <v>493</v>
       </c>
     </row>
     <row r="1475" spans="1:16">
       <c r="A1475" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B1475" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C1475">
-        <v>0.6719948465682828</v>
+        <v>0.6676280159287886</v>
       </c>
       <c r="D1475" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E1475">
-        <v>0.7050224877020383</v>
+        <v>0.4372787538065124</v>
       </c>
       <c r="F1475">
         <v>-1</v>
       </c>
       <c r="G1475">
-        <v>0.006168005153431717</v>
+        <v>0.006012371984071212</v>
       </c>
       <c r="H1475">
-        <v>0.006074977512297962</v>
+        <v>0.006462721246193488</v>
       </c>
       <c r="I1475">
-        <v>-0.03302764113375556</v>
+        <v>0.2303492621222762</v>
       </c>
       <c r="J1475">
         <v>1.260552822675099</v>
       </c>
       <c r="K1475">
+        <v>2.12</v>
+      </c>
+      <c r="L1475">
+        <v>3.34</v>
+      </c>
+      <c r="M1475">
+        <v>2.39</v>
+      </c>
+      <c r="N1475">
+        <v>3.45</v>
+      </c>
+      <c r="O1475">
+        <v>1</v>
+      </c>
+      <c r="P1475" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="1476" spans="1:16">
+      <c r="A1476" s="1">
+        <v>1</v>
+      </c>
+      <c r="B1476" t="s">
+        <v>230</v>
+      </c>
+      <c r="C1476">
+        <v>0.2864345279925038</v>
+      </c>
+      <c r="D1476" t="s">
+        <v>354</v>
+      </c>
+      <c r="E1476">
+        <v>0.5963616772077769</v>
+      </c>
+      <c r="F1476">
+        <v>1</v>
+      </c>
+      <c r="G1476">
+        <v>0.006513565472007496</v>
+      </c>
+      <c r="H1476">
+        <v>0.006243638322792223</v>
+      </c>
+      <c r="I1476">
+        <v>0.3099271492152731</v>
+      </c>
+      <c r="J1476">
+        <v>1.260552822675099</v>
+      </c>
+      <c r="K1476">
+        <v>2.47</v>
+      </c>
+      <c r="L1476">
+        <v>3.4</v>
+      </c>
+      <c r="M1476">
+        <v>2.24</v>
+      </c>
+      <c r="N1476">
+        <v>3.42</v>
+      </c>
+      <c r="O1476">
+        <v>1</v>
+      </c>
+      <c r="P1476" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="1477" spans="1:16">
+      <c r="A1477" s="1">
+        <v>2</v>
+      </c>
+      <c r="B1477" t="s">
+        <v>226</v>
+      </c>
+      <c r="C1477">
+        <v>0.296434527992504</v>
+      </c>
+      <c r="D1477" t="s">
+        <v>354</v>
+      </c>
+      <c r="E1477">
+        <v>0.5963616772077769</v>
+      </c>
+      <c r="F1477">
+        <v>1</v>
+      </c>
+      <c r="G1477">
+        <v>0.006523565472007496</v>
+      </c>
+      <c r="H1477">
+        <v>0.006243638322792223</v>
+      </c>
+      <c r="I1477">
+        <v>0.2999271492152729</v>
+      </c>
+      <c r="J1477">
+        <v>1.260552822675099</v>
+      </c>
+      <c r="K1477">
+        <v>2.47</v>
+      </c>
+      <c r="L1477">
+        <v>3.41</v>
+      </c>
+      <c r="M1477">
+        <v>2.24</v>
+      </c>
+      <c r="N1477">
+        <v>3.42</v>
+      </c>
+      <c r="O1477">
+        <v>1</v>
+      </c>
+      <c r="P1477" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="1478" spans="1:16">
+      <c r="A1478" s="1">
+        <v>3</v>
+      </c>
+      <c r="B1478" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1478">
+        <v>0.6719948465682828</v>
+      </c>
+      <c r="D1478" t="s">
+        <v>355</v>
+      </c>
+      <c r="E1478">
+        <v>0.6846003747950342</v>
+      </c>
+      <c r="F1478">
+        <v>-1</v>
+      </c>
+      <c r="G1478">
+        <v>0.006168005153431717</v>
+      </c>
+      <c r="H1478">
+        <v>0.006155399625204967</v>
+      </c>
+      <c r="I1478">
+        <v>-0.01260552822675143</v>
+      </c>
+      <c r="J1478">
+        <v>1.260552822675099</v>
+      </c>
+      <c r="K1478">
         <v>2.18</v>
       </c>
-      <c r="L1475">
+      <c r="L1478">
         <v>3.42</v>
       </c>
-      <c r="M1475">
-        <v>2.13</v>
-      </c>
-      <c r="N1475">
-        <v>3.39</v>
-      </c>
-      <c r="O1475">
-        <v>1</v>
-      </c>
-      <c r="P1475" t="s">
+      <c r="M1478">
+        <v>2.17</v>
+      </c>
+      <c r="N1478">
+        <v>3.42</v>
+      </c>
+      <c r="O1478">
+        <v>1</v>
+      </c>
+      <c r="P1478" t="s">
         <v>352</v>
       </c>
     </row>
